--- a/pali-class/vocab/vocab-class14.xlsx
+++ b/pali-class/vocab/vocab-class14.xlsx
@@ -793,9 +793,6 @@
     <t>upaṭṭhāpeti 2</t>
   </si>
   <si>
-    <t>paññāpeti 2</t>
-  </si>
-  <si>
     <t>paññāpeti 3</t>
   </si>
   <si>
@@ -925,6 +922,9 @@
     <t>āsaya 2</t>
   </si>
   <si>
+    <t>dhamma 01</t>
+  </si>
+  <si>
     <t>uposatha 1</t>
   </si>
   <si>
@@ -2233,9 +2233,6 @@
     <t>jivhā</t>
   </si>
   <si>
-    <t>sālā 1</t>
-  </si>
-  <si>
     <t>upāsikā</t>
   </si>
   <si>
@@ -2512,6 +2509,12 @@
     <t>rūpa 3</t>
   </si>
   <si>
+    <t>tiṇa 1</t>
+  </si>
+  <si>
+    <t>udaka 1</t>
+  </si>
+  <si>
     <t>pāpa 3</t>
   </si>
   <si>
@@ -2713,9 +2716,6 @@
     <t>sacca 2</t>
   </si>
   <si>
-    <t>phala 1</t>
-  </si>
-  <si>
     <t>ottappa</t>
   </si>
   <si>
@@ -3637,9 +3637,6 @@
     <t>establishes; sets up; causes to be present; makes sure one has</t>
   </si>
   <si>
-    <t>defines as; states; asserts; declares; assigns; lit. causes to know</t>
-  </si>
-  <si>
     <t>is evident; lit. makes itself known</t>
   </si>
   <si>
@@ -3730,7 +3727,7 @@
     <t>tooth</t>
   </si>
   <si>
-    <t>the hair on the body; pelt</t>
+    <t>body hair</t>
   </si>
   <si>
     <t>hair of the head</t>
@@ -3769,6 +3766,9 @@
     <t>home (of); dwelling (of); abode (of)</t>
   </si>
   <si>
+    <t>nature; character</t>
+  </si>
+  <si>
     <t>full moon or new moon observance day</t>
   </si>
   <si>
@@ -5068,9 +5068,6 @@
     <t>tongue</t>
   </si>
   <si>
-    <t>hall</t>
-  </si>
-  <si>
     <t>female disciple; laywomen; female devotee</t>
   </si>
   <si>
@@ -5338,6 +5335,12 @@
     <t>object of the eye; shape; sight</t>
   </si>
   <si>
+    <t>grass; straw</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>worthless action; evil; crime; sin; wrongdoing; misdeed</t>
   </si>
   <si>
@@ -5537,9 +5540,6 @@
   </si>
   <si>
     <t>truth</t>
-  </si>
-  <si>
-    <t>fruit</t>
   </si>
   <si>
     <t>regret; shame in wrongdoing; (comm) due to external</t>
@@ -10814,13 +10814,13 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C270" t="s">
         <v>1221</v>
       </c>
       <c r="D270" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E270" t="s">
         <v>1944</v>
@@ -10831,13 +10831,13 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C271" t="s">
         <v>1222</v>
       </c>
       <c r="D271" t="s">
-        <v>1904</v>
+        <v>947</v>
       </c>
       <c r="E271" t="s">
         <v>1944</v>
@@ -10848,13 +10848,13 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C272" t="s">
         <v>1223</v>
       </c>
       <c r="D272" t="s">
-        <v>947</v>
+        <v>1905</v>
       </c>
       <c r="E272" t="s">
         <v>1944</v>
@@ -10865,16 +10865,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="C273" t="s">
         <v>1224</v>
       </c>
       <c r="D273" t="s">
-        <v>1905</v>
+        <v>1884</v>
       </c>
       <c r="E273" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -18756,7 +18756,7 @@
         <v>948</v>
       </c>
       <c r="C737" t="s">
-        <v>1685</v>
+        <v>1244</v>
       </c>
       <c r="D737" t="s">
         <v>1905</v>
@@ -18773,7 +18773,7 @@
         <v>948</v>
       </c>
       <c r="C738" t="s">
-        <v>1245</v>
+        <v>1685</v>
       </c>
       <c r="D738" t="s">
         <v>1905</v>
@@ -18991,16 +18991,16 @@
         <v>754</v>
       </c>
       <c r="B751" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="C751" t="s">
         <v>1698</v>
       </c>
       <c r="D751" t="s">
-        <v>1905</v>
+        <v>1884</v>
       </c>
       <c r="E751" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="752" spans="1:5">
@@ -19025,13 +19025,13 @@
         <v>756</v>
       </c>
       <c r="B753" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="C753" t="s">
         <v>1700</v>
       </c>
       <c r="D753" t="s">
-        <v>1884</v>
+        <v>945</v>
       </c>
       <c r="E753" t="s">
         <v>1951</v>
@@ -19283,7 +19283,7 @@
         <v>945</v>
       </c>
       <c r="C768" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="D768" t="s">
         <v>945</v>
@@ -19300,7 +19300,7 @@
         <v>945</v>
       </c>
       <c r="C769" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="D769" t="s">
         <v>945</v>
@@ -19314,13 +19314,13 @@
         <v>773</v>
       </c>
       <c r="B770" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C770" t="s">
         <v>1716</v>
       </c>
       <c r="D770" t="s">
-        <v>945</v>
+        <v>1933</v>
       </c>
       <c r="E770" t="s">
         <v>1951</v>
@@ -19348,13 +19348,13 @@
         <v>775</v>
       </c>
       <c r="B772" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="C772" t="s">
         <v>1718</v>
       </c>
       <c r="D772" t="s">
-        <v>1933</v>
+        <v>952</v>
       </c>
       <c r="E772" t="s">
         <v>1951</v>
@@ -19535,13 +19535,13 @@
         <v>786</v>
       </c>
       <c r="B783" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C783" t="s">
         <v>1729</v>
       </c>
       <c r="D783" t="s">
-        <v>952</v>
+        <v>1934</v>
       </c>
       <c r="E783" t="s">
         <v>1951</v>
@@ -19773,13 +19773,13 @@
         <v>800</v>
       </c>
       <c r="B797" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="C797" t="s">
         <v>1743</v>
       </c>
       <c r="D797" t="s">
-        <v>1934</v>
+        <v>940</v>
       </c>
       <c r="E797" t="s">
         <v>1951</v>
@@ -19963,7 +19963,7 @@
         <v>940</v>
       </c>
       <c r="C808" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="D808" t="s">
         <v>940</v>
@@ -19980,7 +19980,7 @@
         <v>940</v>
       </c>
       <c r="C809" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="D809" t="s">
         <v>940</v>
@@ -20011,13 +20011,13 @@
         <v>814</v>
       </c>
       <c r="B811" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="C811" t="s">
         <v>1756</v>
       </c>
       <c r="D811" t="s">
-        <v>940</v>
+        <v>1935</v>
       </c>
       <c r="E811" t="s">
         <v>1951</v>
@@ -20034,7 +20034,7 @@
         <v>1757</v>
       </c>
       <c r="D812" t="s">
-        <v>1935</v>
+        <v>1905</v>
       </c>
       <c r="E812" t="s">
         <v>1951</v>
@@ -20051,7 +20051,7 @@
         <v>1758</v>
       </c>
       <c r="D813" t="s">
-        <v>1905</v>
+        <v>1936</v>
       </c>
       <c r="E813" t="s">
         <v>1951</v>
@@ -20181,16 +20181,16 @@
         <v>824</v>
       </c>
       <c r="B821" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="C821" t="s">
         <v>1766</v>
       </c>
       <c r="D821" t="s">
-        <v>1936</v>
+        <v>1883</v>
       </c>
       <c r="E821" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="822" spans="1:5">
@@ -20198,13 +20198,13 @@
         <v>825</v>
       </c>
       <c r="B822" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C822" t="s">
         <v>1767</v>
       </c>
       <c r="D822" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="E822" t="s">
         <v>1952</v>
@@ -20232,13 +20232,13 @@
         <v>827</v>
       </c>
       <c r="B824" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
       <c r="C824" t="s">
         <v>1769</v>
       </c>
       <c r="D824" t="s">
-        <v>1884</v>
+        <v>1937</v>
       </c>
       <c r="E824" t="s">
         <v>1952</v>

--- a/pali-class/vocab/vocab-class14.xlsx
+++ b/pali-class/vocab/vocab-class14.xlsx
@@ -46,24 +46,24 @@
     <t>amu</t>
   </si>
   <si>
+    <t>anāpucchanta</t>
+  </si>
+  <si>
+    <t>passanta</t>
+  </si>
+  <si>
+    <t>jānanta</t>
+  </si>
+  <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 1</t>
+  </si>
+  <si>
     <t>anussaranta</t>
   </si>
   <si>
-    <t>anāpucchanta</t>
-  </si>
-  <si>
-    <t>passanta</t>
-  </si>
-  <si>
-    <t>jānanta</t>
-  </si>
-  <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 1</t>
-  </si>
-  <si>
     <t>gacchanta</t>
   </si>
   <si>
@@ -100,132 +100,138 @@
     <t>ākaṅkhamāna</t>
   </si>
   <si>
+    <t>methuna 1</t>
+  </si>
+  <si>
+    <t>pamatta 1</t>
+  </si>
+  <si>
+    <t>kāsāya 1</t>
+  </si>
+  <si>
+    <t>oḷārika 1</t>
+  </si>
+  <si>
+    <t>kusala 1</t>
+  </si>
+  <si>
+    <t>aroga</t>
+  </si>
+  <si>
+    <t>samannāgata</t>
+  </si>
+  <si>
+    <t>dakkha</t>
+  </si>
+  <si>
+    <t>hīna 1</t>
+  </si>
+  <si>
+    <t>paṇīta 2</t>
+  </si>
+  <si>
+    <t>sukhuma 1</t>
+  </si>
+  <si>
     <t>anicca 1</t>
   </si>
   <si>
     <t>nicca</t>
   </si>
   <si>
+    <t>sandiṭṭhika</t>
+  </si>
+  <si>
+    <t>parama 1</t>
+  </si>
+  <si>
+    <t>dibba</t>
+  </si>
+  <si>
+    <t>kammaniya</t>
+  </si>
+  <si>
+    <t>anaṅgaṇa</t>
+  </si>
+  <si>
+    <t>pariyodāta</t>
+  </si>
+  <si>
+    <t>kevala 1</t>
+  </si>
+  <si>
+    <t>sabyañjana</t>
+  </si>
+  <si>
+    <t>sāttha</t>
+  </si>
+  <si>
+    <t>apara</t>
+  </si>
+  <si>
+    <t>dukkhita 1</t>
+  </si>
+  <si>
+    <t>odāta 1</t>
+  </si>
+  <si>
+    <t>aparikkamana</t>
+  </si>
+  <si>
     <t>anatta 1</t>
   </si>
   <si>
     <t>dhammika 2</t>
   </si>
   <si>
+    <t>sata 1</t>
+  </si>
+  <si>
+    <t>dakkhiṇa 1</t>
+  </si>
+  <si>
+    <t>majjhima 1</t>
+  </si>
+  <si>
+    <t>purima 1</t>
+  </si>
+  <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
+    <t>manāpa 1</t>
+  </si>
+  <si>
+    <t>piya 1</t>
+  </si>
+  <si>
+    <t>sukara</t>
+  </si>
+  <si>
     <t>byatta</t>
   </si>
   <si>
+    <t>agilāna 1</t>
+  </si>
+  <si>
+    <t>dukkha 2</t>
+  </si>
+  <si>
+    <t>pāṭikaṅkha</t>
+  </si>
+  <si>
+    <t>avera 1</t>
+  </si>
+  <si>
+    <t>sukka 1</t>
+  </si>
+  <si>
+    <t>anuttara</t>
+  </si>
+  <si>
     <t>sāraṇīya 1</t>
   </si>
   <si>
-    <t>pāṭikaṅkha</t>
-  </si>
-  <si>
-    <t>methuna 1</t>
-  </si>
-  <si>
-    <t>pamatta 1</t>
-  </si>
-  <si>
-    <t>kāsāya 1</t>
-  </si>
-  <si>
-    <t>oḷārika 1</t>
-  </si>
-  <si>
-    <t>kusala 1</t>
-  </si>
-  <si>
-    <t>aroga</t>
-  </si>
-  <si>
-    <t>samannāgata</t>
-  </si>
-  <si>
-    <t>dakkha</t>
-  </si>
-  <si>
-    <t>hīna 1</t>
-  </si>
-  <si>
-    <t>sandiṭṭhika</t>
-  </si>
-  <si>
-    <t>parama 1</t>
-  </si>
-  <si>
-    <t>dibba</t>
-  </si>
-  <si>
-    <t>kammaniya</t>
-  </si>
-  <si>
-    <t>anaṅgaṇa</t>
-  </si>
-  <si>
-    <t>pariyodāta</t>
-  </si>
-  <si>
-    <t>kevala 1</t>
-  </si>
-  <si>
-    <t>sabyañjana</t>
-  </si>
-  <si>
-    <t>sāttha</t>
-  </si>
-  <si>
-    <t>apara</t>
-  </si>
-  <si>
-    <t>dukkhita 1</t>
-  </si>
-  <si>
-    <t>odāta 1</t>
-  </si>
-  <si>
-    <t>aparikkamana</t>
-  </si>
-  <si>
-    <t>sata 1</t>
-  </si>
-  <si>
-    <t>dakkhiṇa 1</t>
-  </si>
-  <si>
-    <t>majjhima 1</t>
-  </si>
-  <si>
-    <t>purima 1</t>
-  </si>
-  <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
-    <t>manāpa 1</t>
-  </si>
-  <si>
-    <t>piya 1</t>
-  </si>
-  <si>
-    <t>sukara</t>
-  </si>
-  <si>
-    <t>agilāna 1</t>
-  </si>
-  <si>
-    <t>dukkha 2</t>
-  </si>
-  <si>
-    <t>avera 1</t>
-  </si>
-  <si>
-    <t>sukka 1</t>
-  </si>
-  <si>
-    <t>anuttara</t>
-  </si>
-  <si>
     <t>sampajāna 1</t>
   </si>
   <si>
@@ -289,12 +295,6 @@
     <t>ariya 1</t>
   </si>
   <si>
-    <t>paṇīta 2</t>
-  </si>
-  <si>
-    <t>sukhuma 1</t>
-  </si>
-  <si>
     <t>iṭṭha 1</t>
   </si>
   <si>
@@ -307,99 +307,99 @@
     <t>sugata 2</t>
   </si>
   <si>
+    <t>desita 1</t>
+  </si>
+  <si>
+    <t>akkhāta</t>
+  </si>
+  <si>
+    <t>pabbajita 2</t>
+  </si>
+  <si>
+    <t>āgata 3</t>
+  </si>
+  <si>
+    <t>pahīna</t>
+  </si>
+  <si>
+    <t>kata 1</t>
+  </si>
+  <si>
+    <t>kupita</t>
+  </si>
+  <si>
     <t>vutta 2</t>
   </si>
   <si>
+    <t>visuddha 1</t>
+  </si>
+  <si>
+    <t>ṭhita 2</t>
+  </si>
+  <si>
+    <t>samiñjita 2</t>
+  </si>
+  <si>
+    <t>nisinna 1</t>
+  </si>
+  <si>
+    <t>patta 5</t>
+  </si>
+  <si>
+    <t>laddha 1</t>
+  </si>
+  <si>
+    <t>adhigata 1</t>
+  </si>
+  <si>
+    <t>santuṭṭha 1</t>
+  </si>
+  <si>
+    <t>abhūta 1</t>
+  </si>
+  <si>
+    <t>akata 2</t>
+  </si>
+  <si>
+    <t>vusita 1</t>
+  </si>
+  <si>
+    <t>khīṇa 1</t>
+  </si>
+  <si>
+    <t>vimutta</t>
+  </si>
+  <si>
     <t>anuppanna</t>
   </si>
   <si>
+    <t>paricita</t>
+  </si>
+  <si>
+    <t>cuta 1</t>
+  </si>
+  <si>
+    <t>diṭṭha 1</t>
+  </si>
+  <si>
+    <t>vippamutta</t>
+  </si>
+  <si>
+    <t>puṭṭha 1</t>
+  </si>
+  <si>
     <t>uppanna 1</t>
   </si>
   <si>
-    <t>paricita</t>
+    <t>samāhita 1</t>
+  </si>
+  <si>
+    <t>upaṭṭhita 1</t>
   </si>
   <si>
     <t>āraddha 1</t>
   </si>
   <si>
-    <t>desita 1</t>
-  </si>
-  <si>
-    <t>akkhāta</t>
-  </si>
-  <si>
-    <t>pabbajita 2</t>
-  </si>
-  <si>
-    <t>āgata 3</t>
-  </si>
-  <si>
-    <t>pahīna</t>
-  </si>
-  <si>
-    <t>kata 1</t>
-  </si>
-  <si>
-    <t>kupita</t>
-  </si>
-  <si>
-    <t>visuddha 1</t>
-  </si>
-  <si>
-    <t>ṭhita 2</t>
-  </si>
-  <si>
-    <t>nisinna 1</t>
-  </si>
-  <si>
-    <t>samiñjita 2</t>
-  </si>
-  <si>
-    <t>patta 5</t>
-  </si>
-  <si>
-    <t>laddha 1</t>
-  </si>
-  <si>
-    <t>adhigata 1</t>
-  </si>
-  <si>
-    <t>santuṭṭha 1</t>
-  </si>
-  <si>
-    <t>abhūta 1</t>
-  </si>
-  <si>
-    <t>akata 2</t>
-  </si>
-  <si>
-    <t>vusita 1</t>
-  </si>
-  <si>
-    <t>khīṇa 1</t>
-  </si>
-  <si>
-    <t>vimutta</t>
-  </si>
-  <si>
-    <t>cuta 1</t>
-  </si>
-  <si>
-    <t>diṭṭha 1</t>
-  </si>
-  <si>
-    <t>vippamutta</t>
-  </si>
-  <si>
-    <t>puṭṭha 1</t>
-  </si>
-  <si>
-    <t>samāhita 1</t>
-  </si>
-  <si>
-    <t>upaṭṭhita 1</t>
-  </si>
-  <si>
     <t>dinna 1</t>
   </si>
   <si>
@@ -478,15 +478,15 @@
     <t>dasa 1</t>
   </si>
   <si>
+    <t>aṭṭha 1</t>
+  </si>
+  <si>
+    <t>nava 2</t>
+  </si>
+  <si>
     <t>satta 1</t>
   </si>
   <si>
-    <t>nava 2</t>
-  </si>
-  <si>
-    <t>aṭṭha 1</t>
-  </si>
-  <si>
     <t>pañca</t>
   </si>
   <si>
@@ -571,93 +571,96 @@
     <t>dissati 1</t>
   </si>
   <si>
+    <t>pana</t>
+  </si>
+  <si>
+    <t>accayena 2</t>
+  </si>
+  <si>
+    <t>aññatra 2</t>
+  </si>
+  <si>
+    <t>sabbaso 1</t>
+  </si>
+  <si>
+    <t>sammā 2</t>
+  </si>
+  <si>
+    <t>ciraṃ</t>
+  </si>
+  <si>
+    <t>kho</t>
+  </si>
+  <si>
+    <t>tathā</t>
+  </si>
+  <si>
+    <t>yathā 1</t>
+  </si>
+  <si>
+    <t>saccaṃ</t>
+  </si>
+  <si>
+    <t>hi 1</t>
+  </si>
+  <si>
+    <t>dūre 2</t>
+  </si>
+  <si>
+    <t>bahiddhā 1</t>
+  </si>
+  <si>
+    <t>sādhukaṃ</t>
+  </si>
+  <si>
+    <t>divasaṃ</t>
+  </si>
+  <si>
+    <t>puna</t>
+  </si>
+  <si>
+    <t>sace</t>
+  </si>
+  <si>
     <t>atha 1</t>
   </si>
   <si>
+    <t>iti</t>
+  </si>
+  <si>
+    <t>amutra</t>
+  </si>
+  <si>
+    <t>ito 2</t>
+  </si>
+  <si>
+    <t>pacchato 2</t>
+  </si>
+  <si>
+    <t>tiriyaṃ 1</t>
+  </si>
+  <si>
+    <t>adho 1</t>
+  </si>
+  <si>
+    <t>uddhaṃ 1</t>
+  </si>
+  <si>
+    <t>antamaso</t>
+  </si>
+  <si>
     <t>ajjhattaṃ</t>
   </si>
   <si>
+    <t>santike 1</t>
+  </si>
+  <si>
+    <t>avidūre</t>
+  </si>
+  <si>
     <t>kira 1</t>
   </si>
   <si>
-    <t>kho</t>
-  </si>
-  <si>
-    <t>pana</t>
-  </si>
-  <si>
-    <t>accayena 2</t>
-  </si>
-  <si>
-    <t>aññatra 2</t>
-  </si>
-  <si>
-    <t>sabbaso 1</t>
-  </si>
-  <si>
-    <t>sammā 2</t>
-  </si>
-  <si>
-    <t>ciraṃ</t>
-  </si>
-  <si>
-    <t>tathā</t>
-  </si>
-  <si>
-    <t>yathā 1</t>
-  </si>
-  <si>
-    <t>saccaṃ</t>
-  </si>
-  <si>
-    <t>hi 1</t>
-  </si>
-  <si>
-    <t>dūre 2</t>
-  </si>
-  <si>
-    <t>sādhukaṃ</t>
-  </si>
-  <si>
-    <t>divasaṃ</t>
-  </si>
-  <si>
-    <t>puna</t>
-  </si>
-  <si>
-    <t>sace</t>
-  </si>
-  <si>
-    <t>iti</t>
-  </si>
-  <si>
-    <t>amutra</t>
-  </si>
-  <si>
-    <t>ito 2</t>
-  </si>
-  <si>
-    <t>pacchato 2</t>
-  </si>
-  <si>
-    <t>tiriyaṃ 1</t>
-  </si>
-  <si>
-    <t>adho 1</t>
-  </si>
-  <si>
-    <t>uddhaṃ 1</t>
-  </si>
-  <si>
-    <t>antamaso</t>
-  </si>
-  <si>
-    <t>santike 1</t>
-  </si>
-  <si>
-    <t>avidūre</t>
-  </si>
-  <si>
     <t>ṭhānaso 1</t>
   </si>
   <si>
@@ -685,9 +688,6 @@
     <t>aññathā 1</t>
   </si>
   <si>
-    <t>bahiddhā 1</t>
-  </si>
-  <si>
     <t>ce 1</t>
   </si>
   <si>
@@ -703,12 +703,12 @@
     <t>khajjamāna</t>
   </si>
   <si>
+    <t>paññatta 2</t>
+  </si>
+  <si>
     <t>bhāvita 1</t>
   </si>
   <si>
-    <t>paññatta 2</t>
-  </si>
-  <si>
     <t>karaṇīya 2</t>
   </si>
   <si>
@@ -844,30 +844,321 @@
     <t>bhāvanā 1</t>
   </si>
   <si>
+    <t>vinaya 1</t>
+  </si>
+  <si>
+    <t>dhamma 03</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 2</t>
+  </si>
+  <si>
+    <t>vaccha 1</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
     <t>dhamma 15</t>
   </si>
   <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>vāda 4</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2</t>
+  </si>
+  <si>
+    <t>bhoga 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 01</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
     <t>khattiya 2</t>
   </si>
   <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
     <t>magga 2</t>
   </si>
   <si>
     <t>dhamma 06</t>
   </si>
   <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
     <t>loka 1</t>
   </si>
   <si>
     <t>kāma 3</t>
   </si>
   <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 02</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2</t>
+  </si>
+  <si>
     <t>byāpāda</t>
   </si>
   <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1</t>
+  </si>
+  <si>
+    <t>kāya 2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>kāla 1</t>
+  </si>
+  <si>
     <t>sāvaka</t>
   </si>
   <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 02</t>
+  </si>
+  <si>
+    <t>samatha 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>sakka 3</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
@@ -877,6 +1168,51 @@
     <t>samatikkama</t>
   </si>
   <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -889,342 +1225,6 @@
     <t>kesa</t>
   </si>
   <si>
-    <t>vinaya 1</t>
-  </si>
-  <si>
-    <t>dhamma 03</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 2</t>
-  </si>
-  <si>
-    <t>vaccha 1</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>vāda 4</t>
-  </si>
-  <si>
-    <t>māsa 2</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>bhoga 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 01</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 02</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1</t>
-  </si>
-  <si>
-    <t>kāya 2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>kāla 1</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>sakka 3</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
     <t>sahāya</t>
   </si>
   <si>
@@ -1357,192 +1357,192 @@
     <t>kosalā</t>
   </si>
   <si>
+    <t>punabbhava</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>punabbhava</t>
-  </si>
-  <si>
     <t>vibhaṅga 1</t>
   </si>
   <si>
+    <t>pajahati</t>
+  </si>
+  <si>
+    <t>paṭisevati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>pariyesati</t>
+  </si>
+  <si>
+    <t>bandhati 1</t>
+  </si>
+  <si>
+    <t>passa 5</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>ārabhati 1</t>
+  </si>
+  <si>
+    <t>icchati 1</t>
+  </si>
+  <si>
+    <t>rakkhati 2</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
     <t>bhaṇati 1</t>
   </si>
   <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>pasavati 2</t>
+  </si>
+  <si>
     <t>vattati 1</t>
   </si>
   <si>
+    <t>labhati</t>
+  </si>
+  <si>
+    <t>anussarati 1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
     <t>pucchati</t>
   </si>
   <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>vasati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
     <t>kappati</t>
   </si>
   <si>
-    <t>pajahati</t>
-  </si>
-  <si>
-    <t>paṭisevati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>pariyesati</t>
-  </si>
-  <si>
-    <t>bandhati 1</t>
-  </si>
-  <si>
-    <t>passa 5</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1</t>
-  </si>
-  <si>
-    <t>icchati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>pasavati 2</t>
-  </si>
-  <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>vasati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
     <t>passati 1</t>
   </si>
   <si>
@@ -1636,39 +1636,39 @@
     <t>kassaka</t>
   </si>
   <si>
+    <t>samāpajjati 2</t>
+  </si>
+  <si>
+    <t>ādiyati 1</t>
+  </si>
+  <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upādiyati</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
     <t>uppajjati 1</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>samāpajjati 2</t>
-  </si>
-  <si>
-    <t>ādiyati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
-  </si>
-  <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>upādiyati</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -1678,27 +1678,27 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>atthi 2</t>
+  </si>
+  <si>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
+  </si>
+  <si>
+    <t>attha 12</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>santi 3</t>
   </si>
   <si>
     <t>atthi 1</t>
   </si>
   <si>
-    <t>atthi 2</t>
-  </si>
-  <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
-  </si>
-  <si>
-    <t>attha 12</t>
-  </si>
-  <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -1750,18 +1750,18 @@
     <t>muni 1</t>
   </si>
   <si>
+    <t>sāli</t>
+  </si>
+  <si>
+    <t>kucchi 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
-    <t>sāli</t>
-  </si>
-  <si>
-    <t>kucchi 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
     <t>isi</t>
   </si>
   <si>
@@ -1810,54 +1810,54 @@
     <t>āsi 1</t>
   </si>
   <si>
+    <t>mada 1</t>
+  </si>
+  <si>
+    <t>ājīva</t>
+  </si>
+  <si>
+    <t>appamāda</t>
+  </si>
+  <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>taca 1</t>
   </si>
   <si>
-    <t>mada 1</t>
-  </si>
-  <si>
-    <t>appamāda</t>
-  </si>
-  <si>
-    <t>ājīva</t>
-  </si>
-  <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>abhisamaya</t>
   </si>
   <si>
+    <t>mama 2</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>no 4</t>
+  </si>
+  <si>
+    <t>no 6</t>
+  </si>
+  <si>
+    <t>mayaṃ</t>
+  </si>
+  <si>
+    <t>me 5</t>
+  </si>
+  <si>
+    <t>no 7</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
     <t>me 2</t>
   </si>
   <si>
-    <t>mama 2</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>no 4</t>
-  </si>
-  <si>
-    <t>no 6</t>
-  </si>
-  <si>
-    <t>mayaṃ</t>
-  </si>
-  <si>
-    <t>me 5</t>
-  </si>
-  <si>
-    <t>no 7</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
     <t>ahaṃ</t>
   </si>
   <si>
@@ -1873,18 +1873,18 @@
     <t>neti 1</t>
   </si>
   <si>
+    <t>na 1</t>
+  </si>
+  <si>
+    <t>saddhiṃ</t>
+  </si>
+  <si>
+    <t>saha 2</t>
+  </si>
+  <si>
     <t>no 3</t>
   </si>
   <si>
-    <t>na 1</t>
-  </si>
-  <si>
-    <t>saddhiṃ</t>
-  </si>
-  <si>
-    <t>saha 2</t>
-  </si>
-  <si>
     <t>no 1</t>
   </si>
   <si>
@@ -1918,27 +1918,27 @@
     <t>dassati 1</t>
   </si>
   <si>
+    <t>vo 3</t>
+  </si>
+  <si>
+    <t>vo 2</t>
+  </si>
+  <si>
+    <t>tumhākaṃ 3</t>
+  </si>
+  <si>
+    <t>taṃ 3</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
+    <t>tumhe 2</t>
+  </si>
+  <si>
     <t>tumhe 1</t>
   </si>
   <si>
-    <t>taṃ 3</t>
-  </si>
-  <si>
-    <t>vo 3</t>
-  </si>
-  <si>
-    <t>vo 2</t>
-  </si>
-  <si>
-    <t>tumhākaṃ 3</t>
-  </si>
-  <si>
-    <t>tumhe 2</t>
-  </si>
-  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
@@ -1993,12 +1993,12 @@
     <t>sakadāgāmī</t>
   </si>
   <si>
+    <t>sukhī 2</t>
+  </si>
+  <si>
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>sukhī 2</t>
-  </si>
-  <si>
     <t>sabrahmacārī</t>
   </si>
   <si>
@@ -2014,33 +2014,33 @@
     <t>saṅgaha 1</t>
   </si>
   <si>
+    <t>paññavant</t>
+  </si>
+  <si>
+    <t>balavant</t>
+  </si>
+  <si>
+    <t>sabbāvant</t>
+  </si>
+  <si>
+    <t>satimant 1</t>
+  </si>
+  <si>
     <t>sīlavant</t>
   </si>
   <si>
-    <t>paññavant</t>
-  </si>
-  <si>
-    <t>balavant</t>
-  </si>
-  <si>
-    <t>sabbāvant</t>
-  </si>
-  <si>
-    <t>satimant 1</t>
-  </si>
-  <si>
     <t>assutavant</t>
   </si>
   <si>
+    <t>bhagavant 1</t>
+  </si>
+  <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
-    <t>bhagavant 1</t>
-  </si>
-  <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>satthar 1</t>
   </si>
   <si>
@@ -2068,15 +2068,15 @@
     <t>paricarati 3</t>
   </si>
   <si>
+    <t>kālena</t>
+  </si>
+  <si>
+    <t>āyatiṃ</t>
+  </si>
+  <si>
     <t>vā 1</t>
   </si>
   <si>
-    <t>kālena</t>
-  </si>
-  <si>
-    <t>āyatiṃ</t>
-  </si>
-  <si>
     <t>yadā</t>
   </si>
   <si>
@@ -2143,24 +2143,24 @@
     <t>nahāyati</t>
   </si>
   <si>
+    <t>gaccheyya</t>
+  </si>
+  <si>
+    <t>jāneyya</t>
+  </si>
+  <si>
+    <t>āgaccheyya</t>
+  </si>
+  <si>
+    <t>vadeyya</t>
+  </si>
+  <si>
+    <t>adhigaccheyya</t>
+  </si>
+  <si>
     <t>passeyya 1</t>
   </si>
   <si>
-    <t>gaccheyya</t>
-  </si>
-  <si>
-    <t>jāneyya</t>
-  </si>
-  <si>
-    <t>āgaccheyya</t>
-  </si>
-  <si>
-    <t>vadeyya</t>
-  </si>
-  <si>
-    <t>adhigaccheyya</t>
-  </si>
-  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
@@ -2182,63 +2182,63 @@
     <t>assa 3</t>
   </si>
   <si>
+    <t>sikkhā 2</t>
+  </si>
+  <si>
+    <t>gāthā 1</t>
+  </si>
+  <si>
+    <t>jarā</t>
+  </si>
+  <si>
+    <t>vīmaṃsā 1</t>
+  </si>
+  <si>
+    <t>disā 1</t>
+  </si>
+  <si>
+    <t>paññā 1</t>
+  </si>
+  <si>
+    <t>abhijjhā</t>
+  </si>
+  <si>
+    <t>senā</t>
+  </si>
+  <si>
+    <t>sākhā 1</t>
+  </si>
+  <si>
+    <t>bāhā 1</t>
+  </si>
+  <si>
+    <t>desanā 3</t>
+  </si>
+  <si>
+    <t>vācā 1</t>
+  </si>
+  <si>
+    <t>taṇhā 1</t>
+  </si>
+  <si>
+    <t>vedanā 1</t>
+  </si>
+  <si>
+    <t>jivhā</t>
+  </si>
+  <si>
+    <t>upāsikā</t>
+  </si>
+  <si>
+    <t>pabbajjā</t>
+  </si>
+  <si>
+    <t>devatā</t>
+  </si>
+  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
-    <t>pabbajjā</t>
-  </si>
-  <si>
-    <t>sikkhā 2</t>
-  </si>
-  <si>
-    <t>gāthā 1</t>
-  </si>
-  <si>
-    <t>jarā</t>
-  </si>
-  <si>
-    <t>vīmaṃsā 1</t>
-  </si>
-  <si>
-    <t>disā 1</t>
-  </si>
-  <si>
-    <t>paññā 1</t>
-  </si>
-  <si>
-    <t>abhijjhā</t>
-  </si>
-  <si>
-    <t>senā</t>
-  </si>
-  <si>
-    <t>sākhā 1</t>
-  </si>
-  <si>
-    <t>bāhā 1</t>
-  </si>
-  <si>
-    <t>desanā 3</t>
-  </si>
-  <si>
-    <t>vācā 1</t>
-  </si>
-  <si>
-    <t>taṇhā 1</t>
-  </si>
-  <si>
-    <t>vedanā 1</t>
-  </si>
-  <si>
-    <t>jivhā</t>
-  </si>
-  <si>
-    <t>upāsikā</t>
-  </si>
-  <si>
-    <t>devatā</t>
-  </si>
-  <si>
     <t>pajā 2</t>
   </si>
   <si>
@@ -2341,12 +2341,12 @@
     <t>dhītar</t>
   </si>
   <si>
+    <t>āgamma 1</t>
+  </si>
+  <si>
     <t>samādāya 2</t>
   </si>
   <si>
-    <t>āgamma 1</t>
-  </si>
-  <si>
     <t>anupādāya</t>
   </si>
   <si>
@@ -2374,33 +2374,33 @@
     <t>nisajja</t>
   </si>
   <si>
+    <t>ṭhiti 1</t>
+  </si>
+  <si>
+    <t>kuṭi 1</t>
+  </si>
+  <si>
+    <t>visuddhi 1</t>
+  </si>
+  <si>
+    <t>āpatti 2</t>
+  </si>
+  <si>
     <t>diṭṭhi 1</t>
   </si>
   <si>
+    <t>samāpatti 1</t>
+  </si>
+  <si>
+    <t>ruci</t>
+  </si>
+  <si>
+    <t>sugati</t>
+  </si>
+  <si>
     <t>sati 2</t>
   </si>
   <si>
-    <t>ṭhiti 1</t>
-  </si>
-  <si>
-    <t>kuṭi 1</t>
-  </si>
-  <si>
-    <t>visuddhi 1</t>
-  </si>
-  <si>
-    <t>āpatti 2</t>
-  </si>
-  <si>
-    <t>samāpatti 1</t>
-  </si>
-  <si>
-    <t>ruci</t>
-  </si>
-  <si>
-    <t>sugati</t>
-  </si>
-  <si>
     <t>pīti 1</t>
   </si>
   <si>
@@ -2434,12 +2434,12 @@
     <t>ekato 1</t>
   </si>
   <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
     <t>tattha 1</t>
   </si>
   <si>
@@ -2497,174 +2497,174 @@
     <t>piṇḍāya</t>
   </si>
   <si>
+    <t>tiṇa 1</t>
+  </si>
+  <si>
+    <t>udaka 1</t>
+  </si>
+  <si>
+    <t>pāpa 3</t>
+  </si>
+  <si>
+    <t>bhūta 3</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>sukha 2</t>
+  </si>
+  <si>
+    <t>hita 3</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>kula 2</t>
+  </si>
+  <si>
+    <t>ratana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>arañña</t>
+  </si>
+  <si>
+    <t>sīsa 1</t>
+  </si>
+  <si>
+    <t>bala 2</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>vattha 1</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>ñāṇa</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>dassanāya 2</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>dukkha 3</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>saraṇa 2</t>
+  </si>
+  <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
     <t>adinna 1</t>
   </si>
   <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
+    <t>kusala 4</t>
   </si>
   <si>
     <t>rūpa 3</t>
   </si>
   <si>
-    <t>tiṇa 1</t>
-  </si>
-  <si>
-    <t>udaka 1</t>
-  </si>
-  <si>
-    <t>pāpa 3</t>
-  </si>
-  <si>
-    <t>bhūta 3</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
-  </si>
-  <si>
-    <t>sukha 2</t>
-  </si>
-  <si>
-    <t>hita 3</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>vīriya 1</t>
-  </si>
-  <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>kula 2</t>
-  </si>
-  <si>
-    <t>ratana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>bala 2</t>
-  </si>
-  <si>
-    <t>arañña</t>
-  </si>
-  <si>
-    <t>sīsa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>vattha 1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>ñāṇa</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>dassanāya 2</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2</t>
-  </si>
-  <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
     <t>viññāṇa 1</t>
   </si>
   <si>
@@ -2761,39 +2761,39 @@
     <t>aṭṭhi 1</t>
   </si>
   <si>
+    <t>tāva 1</t>
+  </si>
+  <si>
+    <t>api 7</t>
+  </si>
+  <si>
     <t>nu</t>
   </si>
   <si>
     <t>kallaṃ</t>
   </si>
   <si>
+    <t>api 1</t>
+  </si>
+  <si>
+    <t>alaṃ 2</t>
+  </si>
+  <si>
+    <t>kathaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 3</t>
+  </si>
+  <si>
+    <t>yāva 1</t>
+  </si>
+  <si>
+    <t>sakkā 1</t>
+  </si>
+  <si>
     <t>alaṃ 1</t>
   </si>
   <si>
-    <t>tāva 1</t>
-  </si>
-  <si>
-    <t>api 7</t>
-  </si>
-  <si>
-    <t>api 1</t>
-  </si>
-  <si>
-    <t>alaṃ 2</t>
-  </si>
-  <si>
-    <t>kathaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 3</t>
-  </si>
-  <si>
-    <t>yāva 1</t>
-  </si>
-  <si>
-    <t>sakkā 1</t>
-  </si>
-  <si>
     <t>alaṃ 5</t>
   </si>
   <si>
@@ -2896,24 +2896,24 @@
     <t>that; such (person or place or thing); so and so</t>
   </si>
   <si>
+    <t>not asking permission; not informing</t>
+  </si>
+  <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>knowing</t>
+  </si>
+  <si>
+    <t>seeing; regarding; considering</t>
+  </si>
+  <si>
+    <t>standing; standing still</t>
+  </si>
+  <si>
     <t>remembering; recollecting</t>
   </si>
   <si>
-    <t>not asking permission; not informing</t>
-  </si>
-  <si>
-    <t>seeing</t>
-  </si>
-  <si>
-    <t>knowing</t>
-  </si>
-  <si>
-    <t>seeing; regarding; considering</t>
-  </si>
-  <si>
-    <t>standing; standing still</t>
-  </si>
-  <si>
     <t>going; walking; travelling</t>
   </si>
   <si>
@@ -2950,132 +2950,138 @@
     <t>wishing (for); desiring (for); seeking (for)</t>
   </si>
   <si>
+    <t>sexual</t>
+  </si>
+  <si>
+    <t>careless; heedless; negligent; inattentive; forgetful</t>
+  </si>
+  <si>
+    <t>brownish; colour of Buddhist monks' robes</t>
+  </si>
+  <si>
+    <t>course; gross; substantial; physical; material</t>
+  </si>
+  <si>
+    <t>healthy; beneficial; useful; good; wholesome</t>
+  </si>
+  <si>
+    <t>healthy; free from disease</t>
+  </si>
+  <si>
+    <t>possessing; having; lit. going together with</t>
+  </si>
+  <si>
+    <t>expert; skilled; able</t>
+  </si>
+  <si>
+    <t>low; inferior; deficient; worse</t>
+  </si>
+  <si>
+    <t>superior; sublime; refined; lit. brought forward</t>
+  </si>
+  <si>
+    <t>fine; subtle; refined</t>
+  </si>
+  <si>
     <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
   </si>
   <si>
     <t>constant; continuous; permanent; reliable</t>
   </si>
   <si>
+    <t>visible; evident; presently perceivable; true to experience; (comm) able to be seen by oneself</t>
+  </si>
+  <si>
+    <t>highest; most extreme; very best; ultimate; superior; sublime; lit. furthest</t>
+  </si>
+  <si>
+    <t>divine; heavenly; celestial</t>
+  </si>
+  <si>
+    <t>ready; workable; suitable for use</t>
+  </si>
+  <si>
+    <t>spotless; blemish free</t>
+  </si>
+  <si>
+    <t>pure; clean; shiny; bright</t>
+  </si>
+  <si>
+    <t>all; whole lot; altogether; total; entire; complete</t>
+  </si>
+  <si>
+    <t>in words; in letters</t>
+  </si>
+  <si>
+    <t>in meaning; in spirit</t>
+  </si>
+  <si>
+    <t>another; after; further; next</t>
+  </si>
+  <si>
+    <t>afflicted; miserable; suffering</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>not having a surrounding walk; without an open space round it; not accessible</t>
+  </si>
+  <si>
     <t>impersonal; not oneself; non-subjective; essence-less; non subject to identify with</t>
   </si>
   <si>
     <t>righteous; just</t>
   </si>
   <si>
+    <t>mindful; present; attentive; recollecting</t>
+  </si>
+  <si>
+    <t>right (hand side)</t>
+  </si>
+  <si>
+    <t>middle; medium; middling; lit. belonging to the middle</t>
+  </si>
+  <si>
+    <t>earlier; past; former; previous</t>
+  </si>
+  <si>
+    <t>mentally poised; mentally balanced; equanimous; looking on; lit. onlooker</t>
+  </si>
+  <si>
+    <t>pleasing; pleasant; charming; lit. obtained by mind</t>
+  </si>
+  <si>
+    <t>dear (to); beloved (by); loved (by)</t>
+  </si>
+  <si>
+    <t>easily done; easy to do</t>
+  </si>
+  <si>
     <t>experienced; learned; competent; trained; lit. distinguished</t>
   </si>
   <si>
+    <t>not sick; healthy</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished (for)</t>
+  </si>
+  <si>
+    <t>kind; friendly; peaceful; free of ill-will; without animosity</t>
+  </si>
+  <si>
+    <t>pure; bright</t>
+  </si>
+  <si>
+    <t>highest; unsurpassed; unexcelled; superior; lit. nothing higher</t>
+  </si>
+  <si>
     <t>polite; pleasant; charming; cordial; lit. to be desired</t>
   </si>
   <si>
-    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished (for)</t>
-  </si>
-  <si>
-    <t>sexual</t>
-  </si>
-  <si>
-    <t>careless; heedless; negligent; inattentive; forgetful</t>
-  </si>
-  <si>
-    <t>brownish; colour of Buddhist monks' robes</t>
-  </si>
-  <si>
-    <t>course; gross; substantial; physical; material</t>
-  </si>
-  <si>
-    <t>healthy; beneficial; useful; good; wholesome</t>
-  </si>
-  <si>
-    <t>healthy; free from disease</t>
-  </si>
-  <si>
-    <t>possessing; having; lit. going together with</t>
-  </si>
-  <si>
-    <t>expert; skilled; able</t>
-  </si>
-  <si>
-    <t>low; inferior; deficient; worse</t>
-  </si>
-  <si>
-    <t>visible; evident; presently perceivable; true to experience; (comm) able to be seen by oneself</t>
-  </si>
-  <si>
-    <t>highest; most extreme; very best; ultimate; superior; sublime; lit. furthest</t>
-  </si>
-  <si>
-    <t>divine; heavenly; celestial</t>
-  </si>
-  <si>
-    <t>ready; workable; suitable for use</t>
-  </si>
-  <si>
-    <t>spotless; blemish free</t>
-  </si>
-  <si>
-    <t>pure; clean; shiny; bright</t>
-  </si>
-  <si>
-    <t>all; whole lot; altogether; total; entire; complete</t>
-  </si>
-  <si>
-    <t>in words; in letters</t>
-  </si>
-  <si>
-    <t>in meaning; in spirit</t>
-  </si>
-  <si>
-    <t>another; after; further; next</t>
-  </si>
-  <si>
-    <t>afflicted; miserable; suffering</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>not having a surrounding walk; without an open space round it; not accessible</t>
-  </si>
-  <si>
-    <t>mindful; present; attentive; recollecting</t>
-  </si>
-  <si>
-    <t>right (hand side)</t>
-  </si>
-  <si>
-    <t>middle; medium; middling; lit. belonging to the middle</t>
-  </si>
-  <si>
-    <t>earlier; past; former; previous</t>
-  </si>
-  <si>
-    <t>mentally poised; mentally balanced; equanimous; looking on; lit. onlooker</t>
-  </si>
-  <si>
-    <t>pleasing; pleasant; charming; lit. obtained by mind</t>
-  </si>
-  <si>
-    <t>dear (to); beloved (by); loved (by)</t>
-  </si>
-  <si>
-    <t>easily done; easy to do</t>
-  </si>
-  <si>
-    <t>not sick; healthy</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>kind; friendly; peaceful; free of ill-will; without animosity</t>
-  </si>
-  <si>
-    <t>pure; bright</t>
-  </si>
-  <si>
-    <t>highest; unsurpassed; unexcelled; superior; lit. nothing higher</t>
-  </si>
-  <si>
     <t>clearly aware; fully knowing; mindful; completely comprehending</t>
   </si>
   <si>
@@ -3139,12 +3145,6 @@
     <t>noble; distinguished; of the Buddha</t>
   </si>
   <si>
-    <t>superior; sublime; refined; lit. brought forward</t>
-  </si>
-  <si>
-    <t>fine; subtle; refined</t>
-  </si>
-  <si>
     <t>pleasing; likeable; cherished; wished for</t>
   </si>
   <si>
@@ -3157,99 +3157,99 @@
     <t>Fortunate One; epithet of the Buddha; lit. well gone</t>
   </si>
   <si>
+    <t>preached; taught; explained; instructed; lit. pointed out</t>
+  </si>
+  <si>
+    <t>announced; told; declared</t>
+  </si>
+  <si>
+    <t>ordained; renounced; gone forth</t>
+  </si>
+  <si>
+    <t>come (from); arrived (from)</t>
+  </si>
+  <si>
+    <t>abandoned; dispelled; eliminated; removed; given up</t>
+  </si>
+  <si>
+    <t>done; made</t>
+  </si>
+  <si>
+    <t>indignant; angry; annoyed; outraged; offended</t>
+  </si>
+  <si>
     <t>said; told; spoken; mentioned</t>
   </si>
   <si>
+    <t>cleansed; purified; refined</t>
+  </si>
+  <si>
+    <t>stationary; stable; stabilised; motionless</t>
+  </si>
+  <si>
+    <t>bent back; folded back; flexed back</t>
+  </si>
+  <si>
+    <t>seated</t>
+  </si>
+  <si>
+    <t>attained; reached; gained</t>
+  </si>
+  <si>
+    <t>obtained; gained; won; received</t>
+  </si>
+  <si>
+    <t>attained; obtained; understood</t>
+  </si>
+  <si>
+    <t>satisfied; pleased; content</t>
+  </si>
+  <si>
+    <t>not become; not happened</t>
+  </si>
+  <si>
+    <t>not made; not created</t>
+  </si>
+  <si>
+    <t>fulfilled; completed; finished; lit. lived</t>
+  </si>
+  <si>
+    <t>consumed; spent; finished; exhausted; destroyed</t>
+  </si>
+  <si>
+    <t>freed; liberated; emancipated</t>
+  </si>
+  <si>
     <t>unborn; unarisen; not yet existent</t>
   </si>
   <si>
+    <t>practised; rehearsed; accustomed; familiarized; lit. completely accumulated</t>
+  </si>
+  <si>
+    <t>passed away; died; disappeared</t>
+  </si>
+  <si>
+    <t>seen; found; understood</t>
+  </si>
+  <si>
+    <t>freed; released; saved</t>
+  </si>
+  <si>
+    <t>asked; questioned</t>
+  </si>
+  <si>
     <t>born; arisen; produced; appeared; come into existence</t>
   </si>
   <si>
-    <t>practised; rehearsed; accustomed; familiarized; lit. completely accumulated</t>
+    <t>composed; centred; settled; collected; concentrated</t>
+  </si>
+  <si>
+    <t>present; in attendance; set up; established; lit. stood near</t>
   </si>
   <si>
     <t>aroused; applied; undertaken</t>
   </si>
   <si>
-    <t>preached; taught; explained; instructed; lit. pointed out</t>
-  </si>
-  <si>
-    <t>announced; told; declared</t>
-  </si>
-  <si>
-    <t>ordained; renounced; gone forth</t>
-  </si>
-  <si>
-    <t>come (from); arrived (from)</t>
-  </si>
-  <si>
-    <t>abandoned; dispelled; eliminated; removed; given up</t>
-  </si>
-  <si>
-    <t>done; made</t>
-  </si>
-  <si>
-    <t>indignant; angry; annoyed; outraged; offended</t>
-  </si>
-  <si>
-    <t>cleansed; purified; refined</t>
-  </si>
-  <si>
-    <t>stationary; stable; stabilised; motionless</t>
-  </si>
-  <si>
-    <t>seated</t>
-  </si>
-  <si>
-    <t>bent back; folded back; flexed back</t>
-  </si>
-  <si>
-    <t>attained; reached; gained</t>
-  </si>
-  <si>
-    <t>obtained; gained; won; received</t>
-  </si>
-  <si>
-    <t>attained; obtained; understood</t>
-  </si>
-  <si>
-    <t>satisfied; pleased; content</t>
-  </si>
-  <si>
-    <t>not become; not happened</t>
-  </si>
-  <si>
-    <t>not made; not created</t>
-  </si>
-  <si>
-    <t>fulfilled; completed; finished; lit. lived</t>
-  </si>
-  <si>
-    <t>consumed; spent; finished; exhausted; destroyed</t>
-  </si>
-  <si>
-    <t>freed; liberated; emancipated</t>
-  </si>
-  <si>
-    <t>passed away; died; disappeared</t>
-  </si>
-  <si>
-    <t>seen; found; understood</t>
-  </si>
-  <si>
-    <t>freed; released; saved</t>
-  </si>
-  <si>
-    <t>asked; questioned</t>
-  </si>
-  <si>
-    <t>composed; centred; settled; collected; concentrated</t>
-  </si>
-  <si>
-    <t>present; in attendance; set up; established; lit. stood near</t>
-  </si>
-  <si>
     <t>given; offered</t>
   </si>
   <si>
@@ -3328,15 +3328,15 @@
     <t>ten (10)</t>
   </si>
   <si>
+    <t>eight (8)</t>
+  </si>
+  <si>
+    <t>nine (9)</t>
+  </si>
+  <si>
     <t>seven (7)</t>
   </si>
   <si>
-    <t>nine (9)</t>
-  </si>
-  <si>
-    <t>eight (8)</t>
-  </si>
-  <si>
     <t>five (5)</t>
   </si>
   <si>
@@ -3421,93 +3421,96 @@
     <t>is seen; is observed; is manifest</t>
   </si>
   <si>
+    <t>moreover; and now; but; and next</t>
+  </si>
+  <si>
+    <t>after the death (of); after the passing away; lit. with going beyond</t>
+  </si>
+  <si>
+    <t>apart (from); aside (from); other (than); except (for)</t>
+  </si>
+  <si>
+    <t>in every way; completely; altogether; in every respect</t>
+  </si>
+  <si>
+    <t>perfectly; rightly; correctly</t>
+  </si>
+  <si>
+    <t>for a long time</t>
+  </si>
+  <si>
+    <t>indeed; surely; certainly; truly</t>
+  </si>
+  <si>
+    <t>so; thus; in such a way; in that way; likewise; similarly</t>
+  </si>
+  <si>
+    <t>like; as; as per; according to; how; in whatever way</t>
+  </si>
+  <si>
+    <t>truly; really</t>
+  </si>
+  <si>
+    <t>indeed; certainly; truly; definitely</t>
+  </si>
+  <si>
+    <t>away (from); far away (from)</t>
+  </si>
+  <si>
+    <t>externally; outwardly</t>
+  </si>
+  <si>
+    <t>well; thoroughly; fully; completely</t>
+  </si>
+  <si>
+    <t>by day; during the day; for a day</t>
+  </si>
+  <si>
+    <t>again; once more</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
     <t>and; then; and also</t>
   </si>
   <si>
+    <t>thus; and so; this is; ' '</t>
+  </si>
+  <si>
+    <t>there; in such-and-such a place</t>
+  </si>
+  <si>
+    <t>(of place) from here; away from</t>
+  </si>
+  <si>
+    <t>behind; lit. from behind</t>
+  </si>
+  <si>
+    <t>across; horizontally; width-wise</t>
+  </si>
+  <si>
+    <t>below; under</t>
+  </si>
+  <si>
+    <t>above; up; on top</t>
+  </si>
+  <si>
+    <t>even so much as; even with; even down to; with as little as</t>
+  </si>
+  <si>
     <t>internally; inwardly; personally; within himself</t>
   </si>
   <si>
+    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of)</t>
+  </si>
+  <si>
+    <t>not far; near; not (very) remote</t>
+  </si>
+  <si>
     <t>really; truly; definitely</t>
   </si>
   <si>
-    <t>indeed; surely; certainly; truly</t>
-  </si>
-  <si>
-    <t>moreover; and now; but; and next</t>
-  </si>
-  <si>
-    <t>after the death (of); after the passing away; lit. with going beyond</t>
-  </si>
-  <si>
-    <t>apart (from); aside (from); other (than); except (for)</t>
-  </si>
-  <si>
-    <t>in every way; completely; altogether; in every respect</t>
-  </si>
-  <si>
-    <t>perfectly; rightly; correctly</t>
-  </si>
-  <si>
-    <t>for a long time</t>
-  </si>
-  <si>
-    <t>so; thus; in such a way; in that way; likewise; similarly</t>
-  </si>
-  <si>
-    <t>like; as; as per; according to; how; in whatever way</t>
-  </si>
-  <si>
-    <t>truly; really</t>
-  </si>
-  <si>
-    <t>indeed; certainly; truly; definitely</t>
-  </si>
-  <si>
-    <t>away (from); far away (from)</t>
-  </si>
-  <si>
-    <t>well; thoroughly; fully; completely</t>
-  </si>
-  <si>
-    <t>by day; during the day; for a day</t>
-  </si>
-  <si>
-    <t>again; once more</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>thus; and so; this is; ' '</t>
-  </si>
-  <si>
-    <t>there; in such-and-such a place</t>
-  </si>
-  <si>
-    <t>(of place) from here; away from</t>
-  </si>
-  <si>
-    <t>behind; lit. from behind</t>
-  </si>
-  <si>
-    <t>across; horizontally; width-wise</t>
-  </si>
-  <si>
-    <t>below; under</t>
-  </si>
-  <si>
-    <t>above; up; on top</t>
-  </si>
-  <si>
-    <t>even so much as; even with; even down to; with as little as</t>
-  </si>
-  <si>
-    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of)</t>
-  </si>
-  <si>
-    <t>not far; near; not (very) remote</t>
-  </si>
-  <si>
     <t>on the spot; right there; immediately</t>
   </si>
   <si>
@@ -3535,9 +3538,6 @@
     <t>differently; otherwise; lit. in another way</t>
   </si>
   <si>
-    <t>externally; outwardly</t>
-  </si>
-  <si>
     <t>easily; comfortably; without difficulty</t>
   </si>
   <si>
@@ -3550,12 +3550,12 @@
     <t>being eaten (by); being devoured (by)</t>
   </si>
   <si>
+    <t>(of a rule) formulated; prescribed; decreed; declared</t>
+  </si>
+  <si>
     <t>cultivated; developed; lit. caused to be</t>
   </si>
   <si>
-    <t>(of a rule) formulated; prescribed; decreed; declared</t>
-  </si>
-  <si>
     <t>should be done; must be done; ought to be made</t>
   </si>
   <si>
@@ -3691,30 +3691,321 @@
     <t>development; cultivation; meditation; lit. causing to be</t>
   </si>
   <si>
+    <t>discipline; training; lit. leading out</t>
+  </si>
+  <si>
+    <t>teaching; doctrine</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human; human being; man</t>
+  </si>
+  <si>
+    <t>deity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control; authority; power; mastery</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>an individual; a person</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of)</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; existence; becoming</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>house; dwelling place; residence</t>
+  </si>
+  <si>
+    <t>obstacle; danger; lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
     <t>act; practice; behaviour</t>
   </si>
   <si>
+    <t>fault; offence; transgression; lit. going beyond (the norm)</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>saying; speaking; mentioning</t>
+  </si>
+  <si>
+    <t>road; path; track</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>child; son</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possession; property</t>
+  </si>
+  <si>
+    <t>cause; reason; supporting condition; precondition; requirement</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. coming together; meeting</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; significance</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
     <t>man of the ruling caste; high caste man; nobleman</t>
   </si>
   <si>
+    <t>touch; contact; sense impingement</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
     <t>way; means; method; lit. path</t>
   </si>
   <si>
     <t>matter; thing; phenomena</t>
   </si>
   <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman; man</t>
+  </si>
+  <si>
     <t>world; universe; cosmos</t>
   </si>
   <si>
     <t>sense desire (of); sensual pleasure (of)</t>
   </si>
   <si>
+    <t>watch (of the night); 1/3 of a night; lit. restraint</t>
+  </si>
+  <si>
+    <t>leg; foot</t>
+  </si>
+  <si>
+    <t>schism; break; split</t>
+  </si>
+  <si>
+    <t>requisite; accessory</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit; benefit; advantage</t>
+  </si>
+  <si>
+    <t>the wind; air</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>a living being; creature; sentient beings</t>
+  </si>
+  <si>
     <t>dislike; ill will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
   </si>
   <si>
+    <t>hell; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; comparison</t>
+  </si>
+  <si>
+    <t>group; host; multitude; lit. collection</t>
+  </si>
+  <si>
+    <t>community; assembly of monks</t>
+  </si>
+  <si>
+    <t>well; lit. water drinking</t>
+  </si>
+  <si>
+    <t>affliction; agitation; trouble; despair</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow</t>
+  </si>
+  <si>
+    <t>anger; hatred; ill-will</t>
+  </si>
+  <si>
+    <t>desire; lust; passion; attachment</t>
+  </si>
+  <si>
+    <t>breaking-up (of); breaking apart (of); death</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; dung; faeces</t>
+  </si>
+  <si>
+    <t>urine; lit. flowing out</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
+  </si>
+  <si>
+    <t>obstacle; hindrance; obstruction; barrier</t>
+  </si>
+  <si>
+    <t>trainee; belonging to training; one who is in the course of perfection</t>
+  </si>
+  <si>
+    <t>quality; characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
+  </si>
+  <si>
+    <t>cross-legged sitting position</t>
+  </si>
+  <si>
+    <t>independence; freedom from clinging; non-attachment</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; dropping; abandoning</t>
+  </si>
+  <si>
+    <t>abandoning; giving up; renunciation</t>
+  </si>
+  <si>
+    <t>clarity; light; brightness</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending; termination; cessation; finishing</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>being; living being; life; lit. breath</t>
+  </si>
+  <si>
+    <t>arising; origin; appearance; lit. come up together</t>
+  </si>
+  <si>
+    <t>mass; heap; pile</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness; peace; tranquillity</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death personified; the Evil One; Māra</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>Sakyan; of the Sakyan people</t>
+  </si>
+  <si>
     <t>arrival (at); attainment (of); reaching (of)</t>
   </si>
   <si>
@@ -3724,6 +4015,51 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; saint; holy man; sage</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; hell; lit. going down</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>the sea; ocean</t>
+  </si>
+  <si>
+    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>waning; fading away; lit. discolouring</t>
+  </si>
+  <si>
+    <t>food; fuel; sustenance</t>
+  </si>
+  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -3736,342 +4072,6 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out</t>
-  </si>
-  <si>
-    <t>teaching; doctrine</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control; authority; power; mastery</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>an individual; a person</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of)</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; existence; becoming</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>obstacle; danger; lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>fault; offence; transgression; lit. going beyond (the norm)</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>saying; speaking; mentioning</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>child; son</t>
-  </si>
-  <si>
-    <t>wealth; possession; property</t>
-  </si>
-  <si>
-    <t>cause; reason; supporting condition; precondition; requirement</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>watch (of the night); 1/3 of a night; lit. restraint</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>schism; break; split</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit; benefit; advantage</t>
-  </si>
-  <si>
-    <t>the wind; air</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>a living being; creature; sentient beings</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; comparison</t>
-  </si>
-  <si>
-    <t>group; host; multitude; lit. collection</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; dung; faeces</t>
-  </si>
-  <si>
-    <t>urine; lit. flowing out</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>cross-legged sitting position</t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>being; living being; life; lit. breath</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>Sakyan; of the Sakyan people</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; hell; lit. going down</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>the sea; ocean</t>
-  </si>
-  <si>
-    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
-    <t>food; fuel; sustenance</t>
-  </si>
-  <si>
     <t>friend; companion; fellow traveller</t>
   </si>
   <si>
@@ -4204,192 +4204,192 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
+    <t>appearing again; renewed existence; rebirth; further becoming</t>
+  </si>
+  <si>
     <t>(vinaya) 227 precepts for Buddhist monks</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
     <t>analysis; classification; breakdown</t>
   </si>
   <si>
+    <t>gives up; renounces; forsakes; abandons; let go</t>
+  </si>
+  <si>
+    <t>practices; indulges (in); engages (in); lit. associates</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>searches; seeks; seeks out; looks (for)</t>
+  </si>
+  <si>
+    <t>binds; ties up; imprisons</t>
+  </si>
+  <si>
+    <t>see! look! watch!</t>
+  </si>
+  <si>
+    <t>lasts; remains; persists; lit. stands</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>goes forth; ordains as monk; renounces the household life</t>
+  </si>
+  <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>goes; goes away (from); leaves</t>
   </si>
   <si>
+    <t>begins; starts; arouses</t>
+  </si>
+  <si>
+    <t>wishes; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits</t>
+  </si>
+  <si>
+    <t>says; speaks</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for) requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>breathes; inhales</t>
+  </si>
+  <si>
+    <t>wishes (for); desires; intends; plans</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; finds pleasure in; enjoys it; lit. jumps forward</t>
+  </si>
+  <si>
     <t>speaks; says; proclaims</t>
   </si>
   <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; lifts up; raises; takes out</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>leaves; abandons; gives up; forsakes</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>grows; increases</t>
+  </si>
+  <si>
+    <t>sets aside; lays aside; keeps; stores; saves; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>produces; generates; makes; lit. flows forth</t>
+  </si>
+  <si>
     <t>proceeds; continues; goes forward; practices</t>
   </si>
   <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects</t>
+  </si>
+  <si>
+    <t>sits; sits down</t>
+  </si>
+  <si>
+    <t>is; is being; becomes; exists</t>
+  </si>
+  <si>
+    <t>eats; chews; bites</t>
+  </si>
+  <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
+    <t>leads (to); is useful (for); is conducive to</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>take care of; look after; maintain; lit. carry around</t>
+  </si>
+  <si>
+    <t>lives; dwells</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; lit. puts forward</t>
+  </si>
+  <si>
+    <t>tries; makes an effort; strives for; exerts oneself</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
+  </si>
+  <si>
+    <t>enjoys; finds high pleasure in</t>
+  </si>
+  <si>
+    <t>enters; goes into</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>grows; increases; multiplies</t>
+  </si>
+  <si>
     <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
   </si>
   <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>practices; indulges (in); engages (in); lit. associates</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>searches; seeks; seeks out; looks (for)</t>
-  </si>
-  <si>
-    <t>binds; ties up; imprisons</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
-  </si>
-  <si>
-    <t>goes forth; ordains as monk; renounces the household life</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>begins; starts; arouses</t>
-  </si>
-  <si>
-    <t>wishes; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for) requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>breathes; inhales</t>
-  </si>
-  <si>
-    <t>wishes (for); desires; intends; plans</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; finds pleasure in; enjoys it; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; lifts up; raises; takes out</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>leaves; abandons; gives up; forsakes</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>grows; increases</t>
-  </si>
-  <si>
-    <t>sets aside; lays aside; keeps; stores; saves; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>produces; generates; makes; lit. flows forth</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>sits; sits down</t>
-  </si>
-  <si>
-    <t>is; is being; becomes; exists</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
-  </si>
-  <si>
-    <t>leads (to); is useful (for); is conducive to</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>take care of; look after; maintain; lit. carry around</t>
-  </si>
-  <si>
-    <t>lives; dwells</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; lit. puts forward</t>
-  </si>
-  <si>
-    <t>tries; makes an effort; strives for; exerts oneself</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
-  </si>
-  <si>
-    <t>enjoys; finds high pleasure in</t>
-  </si>
-  <si>
-    <t>enters; goes into</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>grows; increases; multiplies</t>
-  </si>
-  <si>
     <t>sees</t>
   </si>
   <si>
@@ -4480,39 +4480,39 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>engages (in); practices; performs</t>
+  </si>
+  <si>
+    <t>takes; grasps; embraces</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method; is intent on</t>
+  </si>
+  <si>
+    <t>thinks; imagines; presumes</t>
+  </si>
+  <si>
+    <t>grasps; holds onto; clings to; takes as one's own; lit. takes near</t>
+  </si>
+  <si>
+    <t>is reborn in; re-arises; lit. goes towards</t>
+  </si>
+  <si>
+    <t>is disenchanted; is disinterested; is disillusioned</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
     <t>appears; arises; takes place</t>
   </si>
   <si>
-    <t>is reborn in; re-arises; lit. goes towards</t>
-  </si>
-  <si>
-    <t>engages (in); practices; performs</t>
-  </si>
-  <si>
-    <t>takes; grasps; embraces</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>thinks; imagines; presumes</t>
-  </si>
-  <si>
-    <t>grasps; holds onto; clings to; takes as one's own; lit. takes near</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -4522,27 +4522,27 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>there are; they are</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>they are; there are</t>
   </si>
   <si>
     <t>there is</t>
   </si>
   <si>
-    <t>there are; they are</t>
-  </si>
-  <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -4594,18 +4594,18 @@
     <t>monk; sage; hermit; holy man</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>stomach; cavity of the abdomen</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>stomach; cavity of the abdomen</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
     <t>seer; sage</t>
   </si>
   <si>
@@ -4654,51 +4654,51 @@
     <t>one was; it was</t>
   </si>
   <si>
+    <t>excess; pleasure; intoxication</t>
+  </si>
+  <si>
+    <t>livelihood; way of earning a living</t>
+  </si>
+  <si>
+    <t>vigilance; earnestness; carefulness; conscientiousness; heedfulness</t>
+  </si>
+  <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; against the teaching</t>
+  </si>
+  <si>
     <t>skin</t>
   </si>
   <si>
-    <t>excess; pleasure; intoxication</t>
-  </si>
-  <si>
-    <t>vigilance; earnestness; carefulness; conscientiousness; heedfulness</t>
-  </si>
-  <si>
-    <t>livelihood; way of earning a living</t>
-  </si>
-  <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; against the teaching</t>
-  </si>
-  <si>
     <t>complete comprehension (of); total understanding (of); lit. arriving</t>
   </si>
   <si>
+    <t>my; mine</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>us (object)</t>
+  </si>
+  <si>
+    <t>for us; to us</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>our; of us</t>
+  </si>
+  <si>
     <t>by me</t>
   </si>
   <si>
-    <t>my; mine</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>us (object)</t>
-  </si>
-  <si>
-    <t>for us; to us</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>our; of us</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -4714,18 +4714,18 @@
     <t>leads; carries away; takes away</t>
   </si>
   <si>
+    <t>(negative particle); no; not</t>
+  </si>
+  <si>
+    <t>together (with); with</t>
+  </si>
+  <si>
+    <t>with; together (with); accompanied (by)</t>
+  </si>
+  <si>
     <t>then; now; indeed</t>
   </si>
   <si>
-    <t>(negative particle); no; not</t>
-  </si>
-  <si>
-    <t>together (with); with</t>
-  </si>
-  <si>
-    <t>with; together (with); accompanied (by)</t>
-  </si>
-  <si>
     <t>no; not</t>
   </si>
   <si>
@@ -4759,27 +4759,27 @@
     <t>will give (to)</t>
   </si>
   <si>
+    <t>to you all; for you all</t>
+  </si>
+  <si>
+    <t>by you all; with you all</t>
+  </si>
+  <si>
+    <t>of you all; yours</t>
+  </si>
+  <si>
+    <t>you (object)</t>
+  </si>
+  <si>
     <t>to you; for you all</t>
   </si>
   <si>
+    <t>you all; you (respectful plural) (object)</t>
+  </si>
+  <si>
     <t>you all; you (respectful plural)</t>
   </si>
   <si>
-    <t>you (object)</t>
-  </si>
-  <si>
-    <t>to you all; for you all</t>
-  </si>
-  <si>
-    <t>by you all; with you all</t>
-  </si>
-  <si>
-    <t>of you all; yours</t>
-  </si>
-  <si>
-    <t>you all; you (respectful plural) (object)</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
@@ -4831,12 +4831,12 @@
     <t>who returns once; once-returner</t>
   </si>
   <si>
+    <t>happy one; who is at ease; who is happy; who is comfortable</t>
+  </si>
+  <si>
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
-    <t>happy one; who is at ease; who is happy; who is comfortable</t>
-  </si>
-  <si>
     <t>fellow monk; spiritual companion</t>
   </si>
   <si>
@@ -4852,33 +4852,33 @@
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
+    <t>wise; insightful; percipient</t>
+  </si>
+  <si>
+    <t>powerful; strong</t>
+  </si>
+  <si>
+    <t>entire; whole</t>
+  </si>
+  <si>
+    <t>mindful; fully present; attentive; lit. having memory quality</t>
+  </si>
+  <si>
     <t>virtuous; observing the moral practices</t>
   </si>
   <si>
-    <t>wise; insightful; percipient</t>
-  </si>
-  <si>
-    <t>powerful; strong</t>
-  </si>
-  <si>
-    <t>entire; whole</t>
-  </si>
-  <si>
-    <t>mindful; fully present; attentive; lit. having memory quality</t>
-  </si>
-  <si>
     <t>unlearned; untaught; uninitiated; untrained; lit. one who has not heard</t>
   </si>
   <si>
+    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
+  </si>
+  <si>
+    <t>venerable; reverend; lit. elder; respected</t>
+  </si>
+  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
-    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
-  </si>
-  <si>
-    <t>venerable; reverend; lit. elder; respected</t>
-  </si>
-  <si>
     <t>teacher; master; the Buddha</t>
   </si>
   <si>
@@ -4906,15 +4906,15 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
+    <t>at the right moment; at a suitable time; at the proper time</t>
+  </si>
+  <si>
+    <t>in the future; for the future</t>
+  </si>
+  <si>
     <t>or; either or</t>
   </si>
   <si>
-    <t>at the right moment; at a suitable time; at the proper time</t>
-  </si>
-  <si>
-    <t>in the future; for the future</t>
-  </si>
-  <si>
     <t>when; whenever; lit. at whichever time</t>
   </si>
   <si>
@@ -4981,24 +4981,24 @@
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
+    <t>could go; would move; could walk</t>
+  </si>
+  <si>
+    <t>could know; would understand; could be aware; would find out</t>
+  </si>
+  <si>
+    <t>could come; would come along; could approach; would arrive</t>
+  </si>
+  <si>
+    <t>should say; could speak</t>
+  </si>
+  <si>
+    <t>could get; would experience; would come across; lit. could arrive at</t>
+  </si>
+  <si>
     <t>could see; would see</t>
   </si>
   <si>
-    <t>could go; would move; could walk</t>
-  </si>
-  <si>
-    <t>could know; would understand; could be aware; would find out</t>
-  </si>
-  <si>
-    <t>could come; would come along; could approach; would arrive</t>
-  </si>
-  <si>
-    <t>should say; could speak</t>
-  </si>
-  <si>
-    <t>could get; would experience; would come across; lit. could arrive at</t>
-  </si>
-  <si>
     <t>could become available (for); would accrues (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
@@ -5020,60 +5020,60 @@
     <t>may be; would be; could be</t>
   </si>
   <si>
+    <t>training; practice</t>
+  </si>
+  <si>
+    <t>verse; poem; stanza; lit. in singing way</t>
+  </si>
+  <si>
+    <t>decay; aging</t>
+  </si>
+  <si>
+    <t>inquiry; judgement; investigation; discrimination</t>
+  </si>
+  <si>
+    <t>direction; point of the compass; cardinal point</t>
+  </si>
+  <si>
+    <t>wisdom; knowledge; insight</t>
+  </si>
+  <si>
+    <t>wishing; wanting; covetousness</t>
+  </si>
+  <si>
+    <t>army; multitude</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>arm; forearm</t>
+  </si>
+  <si>
+    <t>(vinaya) appointing; indicating; designating; lit. pointing out</t>
+  </si>
+  <si>
+    <t>word; speech; statement; talk</t>
+  </si>
+  <si>
+    <t>craving; wanting; desire; lit. thirst</t>
+  </si>
+  <si>
+    <t>sensation; feeling; felt experience</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>female disciple; laywomen; female devotee</t>
+  </si>
+  <si>
+    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
+  </si>
+  <si>
     <t>personal experience; realization</t>
   </si>
   <si>
-    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
-  </si>
-  <si>
-    <t>training; practice</t>
-  </si>
-  <si>
-    <t>verse; poem; stanza; lit. in singing way</t>
-  </si>
-  <si>
-    <t>decay; aging</t>
-  </si>
-  <si>
-    <t>inquiry; judgement; investigation; discrimination</t>
-  </si>
-  <si>
-    <t>direction; point of the compass; cardinal point</t>
-  </si>
-  <si>
-    <t>wisdom; knowledge; insight</t>
-  </si>
-  <si>
-    <t>wishing; wanting; covetousness</t>
-  </si>
-  <si>
-    <t>army; multitude</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>arm; forearm</t>
-  </si>
-  <si>
-    <t>(vinaya) appointing; indicating; designating; lit. pointing out</t>
-  </si>
-  <si>
-    <t>word; speech; statement; talk</t>
-  </si>
-  <si>
-    <t>craving; wanting; desire; lit. thirst</t>
-  </si>
-  <si>
-    <t>sensation; feeling; felt experience</t>
-  </si>
-  <si>
-    <t>tongue</t>
-  </si>
-  <si>
-    <t>female disciple; laywomen; female devotee</t>
-  </si>
-  <si>
     <t>people; population; generation; mankind</t>
   </si>
   <si>
@@ -5173,12 +5173,12 @@
     <t>daughter</t>
   </si>
   <si>
+    <t>coming; approaching</t>
+  </si>
+  <si>
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
-    <t>coming; approaching</t>
-  </si>
-  <si>
     <t>not holding (onto); not grasping (onto); detaching (from)</t>
   </si>
   <si>
@@ -5206,33 +5206,33 @@
     <t>sitting down</t>
   </si>
   <si>
+    <t>stability; constancy; long lasting; persisting; lit. standing</t>
+  </si>
+  <si>
+    <t>hut</t>
+  </si>
+  <si>
+    <t>cleanness; purity (of); purification (of); holiness</t>
+  </si>
+  <si>
+    <t>(vinaya) offence; transgression</t>
+  </si>
+  <si>
     <t>view; belief; opinion; concept; theory; attitude</t>
   </si>
   <si>
+    <t>attainment; meditation achievement</t>
+  </si>
+  <si>
+    <t>liking; preference; inclination; approval; lit. pleasure</t>
+  </si>
+  <si>
+    <t>good destination; happy fate; heaven; lit. going well</t>
+  </si>
+  <si>
     <t>mindfulness; presence; recollection; awareness</t>
   </si>
   <si>
-    <t>stability; constancy; long lasting; persisting; lit. standing</t>
-  </si>
-  <si>
-    <t>hut</t>
-  </si>
-  <si>
-    <t>cleanness; purity (of); purification (of); holiness</t>
-  </si>
-  <si>
-    <t>(vinaya) offence; transgression</t>
-  </si>
-  <si>
-    <t>attainment; meditation achievement</t>
-  </si>
-  <si>
-    <t>liking; preference; inclination; approval; lit. pleasure</t>
-  </si>
-  <si>
-    <t>good destination; happy fate; heaven; lit. going well</t>
-  </si>
-  <si>
     <t>delight; heart-felt joy; rapture; joyful interest; bliss; lit. lovely feeling</t>
   </si>
   <si>
@@ -5266,12 +5266,12 @@
     <t>on one side</t>
   </si>
   <si>
+    <t>everywhere; in every place</t>
+  </si>
+  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; in every place</t>
-  </si>
-  <si>
     <t>there; in that place</t>
   </si>
   <si>
@@ -5326,174 +5326,174 @@
     <t>for alms; to collect alms food</t>
   </si>
   <si>
+    <t>grass; straw</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>worthless action; evil; crime; sin; wrongdoing; misdeed</t>
+  </si>
+  <si>
+    <t>being; living being</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort (of); to the ease (of).</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit (of); to the blessing (of)</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates</t>
+  </si>
+  <si>
+    <t>homelessness</t>
+  </si>
+  <si>
+    <t>household life; domestic life</t>
+  </si>
+  <si>
+    <t>ease; comfort; happiness; pleasure</t>
+  </si>
+  <si>
+    <t>welfare; good; benefit; blessing</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>vigour; energy; effort; valour; lit. state of a strong man</t>
+  </si>
+  <si>
+    <t>full development; maturity; completion; plenty; fullness</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; reason; lit. tied down to</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>supporter; supporting family; lit. family</t>
+  </si>
+  <si>
+    <t>jewel; gem; gemstone; treasure</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>forest; wood</t>
+  </si>
+  <si>
+    <t>head; crown</t>
+  </si>
+  <si>
+    <t>(Dhamma) power; strength</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size</t>
+  </si>
+  <si>
+    <t>acquisition; appropriation; taking possession; grasping; clinging; lit. taking near</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>side (of the body); flank</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>merit; virtue; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>bedspread; coverlet; counterpane; lit. spread</t>
+  </si>
+  <si>
+    <t>knowledge; understanding; insight</t>
+  </si>
+  <si>
+    <t>house; a dwelling place</t>
+  </si>
+  <si>
+    <t>in order to visit; for the purpose of seeing</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such a state; lit. state of being here</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>(mental) suffering; melancholy; dejection; depression; dissatisfaction</t>
+  </si>
+  <si>
+    <t>discomfort; suffering; pain; unease; unsatisfaction; problem; trouble</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; hostility; animosity</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-decline; non-regress</t>
+  </si>
+  <si>
+    <t>answer; explanation; exposition</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>fault; error; mistake; lit. to be avoided</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule; lit. part of training</t>
+  </si>
+  <si>
+    <t>danger; peril</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
     <t xml:space="preserve">which is not given; something not offered </t>
   </si>
   <si>
-    <t>precept; instruction; training rule; lit. part of training</t>
-  </si>
-  <si>
-    <t>danger; peril</t>
+    <t>good; benefit; merit; good deed; doing good</t>
   </si>
   <si>
     <t>object of the eye; shape; sight</t>
   </si>
   <si>
-    <t>grass; straw</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>worthless action; evil; crime; sin; wrongdoing; misdeed</t>
-  </si>
-  <si>
-    <t>being; living being</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort (of); to the ease (of).</t>
-  </si>
-  <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit (of); to the blessing (of)</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates</t>
-  </si>
-  <si>
-    <t>homelessness</t>
-  </si>
-  <si>
-    <t>household life; domestic life</t>
-  </si>
-  <si>
-    <t>ease; comfort; happiness; pleasure</t>
-  </si>
-  <si>
-    <t>welfare; good; benefit; blessing</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>vigour; energy; effort; valour; lit. state of a strong man</t>
-  </si>
-  <si>
-    <t>full development; maturity; completion; plenty; fullness</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; reason; lit. tied down to</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>supporter; supporting family; lit. family</t>
-  </si>
-  <si>
-    <t>jewel; gem; gemstone; treasure</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>forest; wood</t>
-  </si>
-  <si>
-    <t>head; crown</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size</t>
-  </si>
-  <si>
-    <t>acquisition; appropriation; taking possession; grasping; clinging; lit. taking near</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>side (of the body); flank</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; virtue; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>bedspread; coverlet; counterpane; lit. spread</t>
-  </si>
-  <si>
-    <t>knowledge; understanding; insight</t>
-  </si>
-  <si>
-    <t>house; a dwelling place</t>
-  </si>
-  <si>
-    <t>in order to visit; for the purpose of seeing</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such a state; lit. state of being here</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; melancholy; dejection; depression; dissatisfaction</t>
-  </si>
-  <si>
-    <t>discomfort; suffering; pain; unease; unsatisfaction; problem; trouble</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; hostility; animosity</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-decline; non-regress</t>
-  </si>
-  <si>
-    <t>answer; explanation; exposition</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>fault; error; mistake; lit. to be avoided</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
     <t>awareness; consciousness; fifth of the five aggregates; lit. knowing</t>
   </si>
   <si>
@@ -5590,37 +5590,37 @@
     <t>a bone</t>
   </si>
   <si>
+    <t>that much; that far; as long as; to that extent; until; at least</t>
+  </si>
+  <si>
+    <t>too; also; as well</t>
+  </si>
+  <si>
     <t>surely?; didn't?; wouldn't?</t>
   </si>
   <si>
     <t>it is suitable (to); it is proper (to); it is fit (for); lit. healthy</t>
   </si>
   <si>
+    <t>just; only</t>
+  </si>
+  <si>
+    <t>is able (to); is possible (to); is capable (of); lit. enough</t>
+  </si>
+  <si>
+    <t>how?; in what way?</t>
+  </si>
+  <si>
+    <t>enough; it is enough (for)</t>
+  </si>
+  <si>
+    <t>as long as; as far as; up to; until; from … to …</t>
+  </si>
+  <si>
+    <t>it is possible (to); one is able (to)</t>
+  </si>
+  <si>
     <t>(it is) suitable (to); proper (to); worthy (for); lit. enough (to)</t>
-  </si>
-  <si>
-    <t>that much; that far; as long as; to that extent; until; at least</t>
-  </si>
-  <si>
-    <t>too; also; as well</t>
-  </si>
-  <si>
-    <t>just; only</t>
-  </si>
-  <si>
-    <t>is able (to); is possible (to); is capable (of); lit. enough</t>
-  </si>
-  <si>
-    <t>how?; in what way?</t>
-  </si>
-  <si>
-    <t>enough; it is enough (for)</t>
-  </si>
-  <si>
-    <t>as long as; as far as; up to; until; from … to …</t>
-  </si>
-  <si>
-    <t>it is possible (to); one is able (to)</t>
   </si>
   <si>
     <t>that's enough (of)! stop (with)!</t>
@@ -7981,7 +7981,7 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C103" t="s">
         <v>1056</v>
@@ -8049,7 +8049,7 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C107" t="s">
         <v>1060</v>
@@ -9990,7 +9990,7 @@
         <v>941</v>
       </c>
       <c r="C221" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D221" t="s">
         <v>941</v>
@@ -13914,7 +13914,7 @@
         <v>455</v>
       </c>
       <c r="B452" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="C452" t="s">
         <v>1404</v>
@@ -13999,7 +13999,7 @@
         <v>460</v>
       </c>
       <c r="B457" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="C457" t="s">
         <v>1409</v>
@@ -15648,7 +15648,7 @@
         <v>557</v>
       </c>
       <c r="B554" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="C554" t="s">
         <v>1505</v>
@@ -15682,7 +15682,7 @@
         <v>559</v>
       </c>
       <c r="B556" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="C556" t="s">
         <v>1507</v>
@@ -16552,7 +16552,7 @@
         <v>936</v>
       </c>
       <c r="C607" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="D607" t="s">
         <v>1919</v>
@@ -16569,7 +16569,7 @@
         <v>936</v>
       </c>
       <c r="C608" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="D608" t="s">
         <v>1919</v>
@@ -18745,7 +18745,7 @@
         <v>949</v>
       </c>
       <c r="C736" t="s">
-        <v>1685</v>
+        <v>1230</v>
       </c>
       <c r="D736" t="s">
         <v>1907</v>
@@ -18762,7 +18762,7 @@
         <v>949</v>
       </c>
       <c r="C737" t="s">
-        <v>1245</v>
+        <v>1685</v>
       </c>
       <c r="D737" t="s">
         <v>1907</v>

--- a/pali-class/vocab/vocab-class14.xlsx
+++ b/pali-class/vocab/vocab-class14.xlsx
@@ -46,60 +46,60 @@
     <t>amu</t>
   </si>
   <si>
+    <t>passanta 1</t>
+  </si>
+  <si>
+    <t>jānanta</t>
+  </si>
+  <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 1</t>
+  </si>
+  <si>
+    <t>anussaranta</t>
+  </si>
+  <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 2</t>
+  </si>
+  <si>
+    <t>ajānanta</t>
+  </si>
+  <si>
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>passanta 1</t>
-  </si>
-  <si>
-    <t>jānanta</t>
-  </si>
-  <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 1</t>
-  </si>
-  <si>
-    <t>anussaranta</t>
-  </si>
-  <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
-  </si>
-  <si>
     <t>apassanta</t>
   </si>
   <si>
-    <t>ajānanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 2</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
     <t>ima 1.1</t>
   </si>
   <si>
+    <t>cavamāna</t>
+  </si>
+  <si>
+    <t>caramāna</t>
+  </si>
+  <si>
+    <t>sampassamāna</t>
+  </si>
+  <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
-    <t>cavamāna</t>
-  </si>
-  <si>
-    <t>caramāna</t>
-  </si>
-  <si>
-    <t>sampassamāna</t>
-  </si>
-  <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
     <t>methuna 1</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>dakkha</t>
   </si>
   <si>
+    <t>paṇīta 2</t>
+  </si>
+  <si>
     <t>hīna 1</t>
   </si>
   <si>
-    <t>paṇīta 2</t>
-  </si>
-  <si>
     <t>anicca 1</t>
   </si>
   <si>
@@ -241,6 +241,12 @@
     <t>oḷārika 2</t>
   </si>
   <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
     <t>akhaṇḍa</t>
   </si>
   <si>
@@ -268,36 +274,30 @@
     <t>abhikkanta 3</t>
   </si>
   <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>sārambha 2.1</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
     <t>panta 2</t>
   </si>
   <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
     <t>sāra 1</t>
   </si>
   <si>
-    <t>sārambha 2.1</t>
-  </si>
-  <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
     <t>sukhuma 1</t>
   </si>
   <si>
@@ -514,63 +514,63 @@
     <t>pavuccati</t>
   </si>
   <si>
+    <t>vuccati</t>
+  </si>
+  <si>
+    <t>pahīyati 1.1</t>
+  </si>
+  <si>
+    <t>nirujjhati</t>
+  </si>
+  <si>
+    <t>ñāyati 1</t>
+  </si>
+  <si>
+    <t>jāyati 2</t>
+  </si>
+  <si>
+    <t>vimuccati</t>
+  </si>
+  <si>
+    <t>vijjati 1</t>
+  </si>
+  <si>
+    <t>parinibbāyati 1</t>
+  </si>
+  <si>
+    <t>muccati 1.1</t>
+  </si>
+  <si>
+    <t>samādhiyati</t>
+  </si>
+  <si>
+    <t>virajjati 1</t>
+  </si>
+  <si>
+    <t>parimuccati</t>
+  </si>
+  <si>
+    <t>haññati 2</t>
+  </si>
+  <si>
+    <t>dissati 2</t>
+  </si>
+  <si>
+    <t>khajjati 1</t>
+  </si>
+  <si>
+    <t>dissati 1</t>
+  </si>
+  <si>
     <t>chijjati 1</t>
   </si>
   <si>
-    <t>vuccati</t>
-  </si>
-  <si>
-    <t>pahīyati 1.1</t>
-  </si>
-  <si>
-    <t>nirujjhati</t>
-  </si>
-  <si>
-    <t>ñāyati 1</t>
-  </si>
-  <si>
-    <t>jāyati 2</t>
-  </si>
-  <si>
-    <t>vimuccati</t>
-  </si>
-  <si>
-    <t>vijjati 1</t>
-  </si>
-  <si>
     <t>paritassati</t>
   </si>
   <si>
-    <t>parinibbāyati 1</t>
-  </si>
-  <si>
-    <t>muccati 1.1</t>
-  </si>
-  <si>
-    <t>samādhiyati</t>
-  </si>
-  <si>
-    <t>virajjati 1</t>
-  </si>
-  <si>
-    <t>parimuccati</t>
-  </si>
-  <si>
     <t>vinassati</t>
   </si>
   <si>
-    <t>haññati 2</t>
-  </si>
-  <si>
-    <t>dissati 2</t>
-  </si>
-  <si>
-    <t>khajjati 1</t>
-  </si>
-  <si>
-    <t>dissati 1</t>
-  </si>
-  <si>
     <t>pana</t>
   </si>
   <si>
@@ -604,12 +604,15 @@
     <t>hi 1</t>
   </si>
   <si>
+    <t>ce 1</t>
+  </si>
+  <si>
+    <t>santike 1</t>
+  </si>
+  <si>
     <t>dūre 2</t>
   </si>
   <si>
-    <t>santike 1</t>
-  </si>
-  <si>
     <t>bahiddhā 1</t>
   </si>
   <si>
@@ -652,6 +655,9 @@
     <t>antamaso 1</t>
   </si>
   <si>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
     <t>ajjhattaṃ</t>
   </si>
   <si>
@@ -688,12 +694,6 @@
     <t>aññathā 1</t>
   </si>
   <si>
-    <t>ce 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
     <t>yoniso</t>
   </si>
   <si>
@@ -730,15 +730,15 @@
     <t>kāretabba 1</t>
   </si>
   <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
     <t>daṭṭhabba 1</t>
   </si>
   <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
     <t>pahātabba</t>
   </si>
   <si>
@@ -781,60 +781,60 @@
     <t>deseti 1</t>
   </si>
   <si>
+    <t>sameti 1.1</t>
+  </si>
+  <si>
+    <t>māneti</t>
+  </si>
+  <si>
+    <t>upaṭṭhāpeti 2</t>
+  </si>
+  <si>
+    <t>paññāpeti 3</t>
+  </si>
+  <si>
+    <t>paripūreti 1</t>
+  </si>
+  <si>
+    <t>parisandeti</t>
+  </si>
+  <si>
+    <t>abhininnāmeti 1</t>
+  </si>
+  <si>
+    <t>pakāseti 2</t>
+  </si>
+  <si>
+    <t>parisodheti</t>
+  </si>
+  <si>
+    <t>pasāreti</t>
+  </si>
+  <si>
+    <t>atikkāmeti 2</t>
+  </si>
+  <si>
+    <t>kāreti 4</t>
+  </si>
+  <si>
+    <t>kappeti 1</t>
+  </si>
+  <si>
+    <t>janeti</t>
+  </si>
+  <si>
+    <t>bhāveti</t>
+  </si>
+  <si>
+    <t>sameti 2.2</t>
+  </si>
+  <si>
+    <t>abhisandeti</t>
+  </si>
+  <si>
     <t>pabbājeti 1</t>
   </si>
   <si>
-    <t>sameti 1.1</t>
-  </si>
-  <si>
-    <t>māneti</t>
-  </si>
-  <si>
-    <t>upaṭṭhāpeti 2</t>
-  </si>
-  <si>
-    <t>paññāpeti 3</t>
-  </si>
-  <si>
-    <t>paripūreti 1</t>
-  </si>
-  <si>
-    <t>parisandeti</t>
-  </si>
-  <si>
-    <t>abhisandeti</t>
-  </si>
-  <si>
-    <t>abhininnāmeti 1</t>
-  </si>
-  <si>
-    <t>pakāseti 2</t>
-  </si>
-  <si>
-    <t>parisodheti</t>
-  </si>
-  <si>
-    <t>pasāreti</t>
-  </si>
-  <si>
-    <t>atikkāmeti 2</t>
-  </si>
-  <si>
-    <t>kāreti 4</t>
-  </si>
-  <si>
-    <t>kappeti 1</t>
-  </si>
-  <si>
-    <t>bhāveti</t>
-  </si>
-  <si>
-    <t>janeti</t>
-  </si>
-  <si>
-    <t>sameti 2.2</t>
-  </si>
-  <si>
     <t>pamādi</t>
   </si>
   <si>
@@ -850,492 +850,492 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>vāda 4</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>vāda 4</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>paṭilābha</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>pāsāda</t>
+  </si>
+  <si>
+    <t>kumāra 2</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>rājañña</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
   </si>
   <si>
     <t>daṇḍa 1</t>
   </si>
   <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
   </si>
   <si>
     <t>passāva</t>
   </si>
   <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
   </si>
   <si>
     <t>sakka 3</t>
   </si>
   <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>pāsāda</t>
-  </si>
-  <si>
-    <t>kumāra 2</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>rājañña</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>paṭilābha</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
     <t>satipaṭṭhāna 1</t>
   </si>
   <si>
@@ -1381,177 +1381,177 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>pasavati 2</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>vattati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>vasati</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>pasavati 2</t>
-  </si>
-  <si>
-    <t>vattati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>vasati</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1567,12 +1567,12 @@
     <t>vedeti 1</t>
   </si>
   <si>
+    <t>seti 2</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>seti 2</t>
-  </si>
-  <si>
     <t>deti 1</t>
   </si>
   <si>
@@ -1597,39 +1597,39 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
     <t>pajānāti</t>
   </si>
   <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>vijānāti 1</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>saṇṭhāti</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>vijānāti 1</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>saṇṭhāti</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
@@ -1642,6 +1642,9 @@
     <t>ādiyati 1</t>
   </si>
   <si>
+    <t>āpajjati 5</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -1651,33 +1654,30 @@
     <t>maññati 1</t>
   </si>
   <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>upādiyati</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 5</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
@@ -1735,18 +1735,18 @@
     <t>pakkāmi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -1759,6 +1759,9 @@
     <t>aggi</t>
   </si>
   <si>
+    <t>ñāti</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
@@ -1777,9 +1780,6 @@
     <t>byādhi</t>
   </si>
   <si>
-    <t>ñāti</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -1798,12 +1798,12 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -1843,6 +1843,9 @@
     <t>no 2.3</t>
   </si>
   <si>
+    <t>me 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
@@ -1864,9 +1867,6 @@
     <t>maṃ 1</t>
   </si>
   <si>
-    <t>me 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -1930,6 +1930,9 @@
     <t>taṃ 2.1</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
@@ -1939,24 +1942,21 @@
     <t>tumhe 1</t>
   </si>
   <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
+    <t>te 2.3</t>
+  </si>
+  <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>te 2.4</t>
   </si>
   <si>
-    <t>te 2.3</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -2050,27 +2050,30 @@
     <t>akkhātar</t>
   </si>
   <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>dātar 1</t>
   </si>
   <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
+    <t>mātāpitar</t>
+  </si>
+  <si>
     <t>bhātar</t>
   </si>
   <si>
-    <t>mātāpitar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
     <t>kālena</t>
   </si>
   <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
     <t>āyatiṃ</t>
   </si>
   <si>
@@ -2086,36 +2089,33 @@
     <t>ca 1</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>dāni</t>
+  </si>
+  <si>
+    <t>ajja</t>
+  </si>
+  <si>
     <t>sabbadā</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>dāni</t>
-  </si>
-  <si>
-    <t>ajja</t>
-  </si>
-  <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
     <t>garu 5</t>
   </si>
   <si>
+    <t>phāsu 2</t>
+  </si>
+  <si>
     <t>bhikkhu</t>
   </si>
   <si>
     <t>maccu</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
@@ -2134,12 +2134,12 @@
     <t>lokavidū</t>
   </si>
   <si>
+    <t>paṭighāta 1</t>
+  </si>
+  <si>
     <t>gāha 2.2</t>
   </si>
   <si>
-    <t>paṭighāta 1</t>
-  </si>
-  <si>
     <t>nahāyati</t>
   </si>
   <si>
@@ -2161,15 +2161,15 @@
     <t>passeyya 1</t>
   </si>
   <si>
+    <t>vihareyya</t>
+  </si>
+  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
     <t>upapajjeyya</t>
   </si>
   <si>
-    <t>vihareyya</t>
-  </si>
-  <si>
     <t>hanati 2</t>
   </si>
   <si>
@@ -2197,6 +2197,12 @@
     <t>disā 1</t>
   </si>
   <si>
+    <t>nisajjā 1</t>
+  </si>
+  <si>
+    <t>kathā 1</t>
+  </si>
+  <si>
     <t>paññā 1</t>
   </si>
   <si>
@@ -2245,12 +2251,6 @@
     <t>avijjā</t>
   </si>
   <si>
-    <t>nisajjā 1</t>
-  </si>
-  <si>
-    <t>kathā 1</t>
-  </si>
-  <si>
     <t>upasampadā 2</t>
   </si>
   <si>
@@ -2293,48 +2293,48 @@
     <t>hitvā</t>
   </si>
   <si>
+    <t>disvā</t>
+  </si>
+  <si>
+    <t>ñatvā</t>
+  </si>
+  <si>
+    <t>sāyitvā</t>
+  </si>
+  <si>
+    <t>sutvā</t>
+  </si>
+  <si>
+    <t>pharitvā 1</t>
+  </si>
+  <si>
+    <t>chetvā 1</t>
+  </si>
+  <si>
+    <t>ābhujitvā</t>
+  </si>
+  <si>
+    <t>paṭissutvā</t>
+  </si>
+  <si>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>caritvā 1.1</t>
+  </si>
+  <si>
+    <t>gahetvā 1</t>
+  </si>
+  <si>
+    <t>karitvā 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamitvā</t>
+  </si>
+  <si>
     <t>paggahetvā 2</t>
   </si>
   <si>
-    <t>disvā</t>
-  </si>
-  <si>
-    <t>ñatvā</t>
-  </si>
-  <si>
-    <t>sāyitvā</t>
-  </si>
-  <si>
-    <t>sutvā</t>
-  </si>
-  <si>
-    <t>pharitvā 1</t>
-  </si>
-  <si>
-    <t>chetvā 1</t>
-  </si>
-  <si>
-    <t>ābhujitvā</t>
-  </si>
-  <si>
-    <t>paṭissutvā</t>
-  </si>
-  <si>
-    <t>katvāna 1</t>
-  </si>
-  <si>
-    <t>caritvā 1.1</t>
-  </si>
-  <si>
-    <t>gahetvā 1</t>
-  </si>
-  <si>
-    <t>karitvā 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamitvā</t>
-  </si>
-  <si>
     <t>mātar</t>
   </si>
   <si>
@@ -2356,24 +2356,24 @@
     <t>paṇidhāya 1</t>
   </si>
   <si>
+    <t>ādāya 4</t>
+  </si>
+  <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>vivicca</t>
+  </si>
+  <si>
+    <t>uṭṭhāya</t>
+  </si>
+  <si>
+    <t>nisajja</t>
+  </si>
+  <si>
     <t>abhinivissa</t>
   </si>
   <si>
-    <t>ādāya 4</t>
-  </si>
-  <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
-    <t>vivicca</t>
-  </si>
-  <si>
-    <t>uṭṭhāya</t>
-  </si>
-  <si>
-    <t>nisajja</t>
-  </si>
-  <si>
     <t>ṭhiti 1</t>
   </si>
   <si>
@@ -2395,21 +2395,21 @@
     <t>ruci</t>
   </si>
   <si>
+    <t>sati 1.2</t>
+  </si>
+  <si>
+    <t>pīti 1.1</t>
+  </si>
+  <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
     <t>sugati</t>
   </si>
   <si>
-    <t>sati 1.2</t>
-  </si>
-  <si>
-    <t>pīti 1.1</t>
-  </si>
-  <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
     <t>vimutti</t>
   </si>
   <si>
@@ -2419,45 +2419,45 @@
     <t>yattha</t>
   </si>
   <si>
+    <t>idha 1</t>
+  </si>
+  <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>purato</t>
+  </si>
+  <si>
+    <t>idha 2</t>
+  </si>
+  <si>
+    <t>ekato 1</t>
+  </si>
+  <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
+    <t>tattha 1</t>
+  </si>
+  <si>
+    <t>upari 1</t>
+  </si>
+  <si>
+    <t>yato 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>tato 4</t>
+  </si>
+  <si>
     <t>ettha 1</t>
   </si>
   <si>
-    <t>idha 1</t>
-  </si>
-  <si>
-    <t>purato</t>
-  </si>
-  <si>
-    <t>idha 2</t>
-  </si>
-  <si>
-    <t>ekato 1</t>
-  </si>
-  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
-    <t>tattha 1</t>
-  </si>
-  <si>
-    <t>upari 1</t>
-  </si>
-  <si>
-    <t>yato 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>tato 4</t>
-  </si>
-  <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -2590,6 +2590,9 @@
     <t>padhāna 1</t>
   </si>
   <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
     <t>vattha 1.1</t>
   </si>
   <si>
@@ -2641,24 +2644,21 @@
     <t>saraṇa 2.1</t>
   </si>
   <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
     <t>vajja 3</t>
   </si>
   <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
     <t>bhojana 2</t>
   </si>
   <si>
     <t>vassa 3</t>
   </si>
   <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
     <t>kusala 4</t>
   </si>
   <si>
@@ -2896,60 +2896,60 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
+    <t>seeing; perceiving</t>
+  </si>
+  <si>
+    <t>standing; standing still</t>
+  </si>
+  <si>
+    <t>remembering; recollecting; keeping in mind</t>
+  </si>
+  <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
+    <t>lasting; remaining; persisting; lit. standing</t>
+  </si>
+  <si>
+    <t>not knowing; being ignorant (of)</t>
+  </si>
+  <si>
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>seeing</t>
-  </si>
-  <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
-    <t>seeing; perceiving</t>
-  </si>
-  <si>
-    <t>standing; standing still</t>
-  </si>
-  <si>
-    <t>remembering; recollecting; keeping in mind</t>
-  </si>
-  <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
-  </si>
-  <si>
     <t>not seeing; not noticing; not aware</t>
   </si>
   <si>
-    <t>not knowing; being ignorant (of)</t>
-  </si>
-  <si>
-    <t>lasting; remaining; persisting; lit. standing</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
     <t>this</t>
   </si>
   <si>
+    <t>falling away; dying</t>
+  </si>
+  <si>
+    <t>walking; walking about; wandering around (in); going around</t>
+  </si>
+  <si>
+    <t>seeing; observing; considering</t>
+  </si>
+  <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
-    <t>falling away; dying</t>
-  </si>
-  <si>
-    <t>walking; walking about; wandering around (in); going around</t>
-  </si>
-  <si>
-    <t>seeing; observing; considering</t>
-  </si>
-  <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
     <t>sexual</t>
   </si>
   <si>
@@ -2974,12 +2974,12 @@
     <t>expert; skilled; able; adroit</t>
   </si>
   <si>
+    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
+  </si>
+  <si>
     <t>low; inferior; deficient</t>
   </si>
   <si>
-    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
-  </si>
-  <si>
     <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
   </si>
   <si>
@@ -3091,6 +3091,12 @@
     <t>(of food) solid; heavy; substantial</t>
   </si>
   <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
     <t>unbroken; unfragmented; whole</t>
   </si>
   <si>
@@ -3118,36 +3124,30 @@
     <t>progressing; moving on; (comm) ending; depletion</t>
   </si>
   <si>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>harmful; hurtful; injurious (to living creatures)</t>
+  </si>
+  <si>
+    <t>dark; black</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
     <t>secluded; isolated; solitary</t>
   </si>
   <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
     <t>essential; substantial; valuable; sound</t>
   </si>
   <si>
-    <t>harmful; hurtful; injurious (to living creatures)</t>
-  </si>
-  <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
     <t>fine; subtle; refined</t>
   </si>
   <si>
@@ -3364,63 +3364,63 @@
     <t>is called; is named; is said to be</t>
   </si>
   <si>
+    <t>is said to be; is called</t>
+  </si>
+  <si>
+    <t>is abandoned; is given up</t>
+  </si>
+  <si>
+    <t>dissolves; finishes; stops; ceases; vanishes</t>
+  </si>
+  <si>
+    <t>is known; is evident; is perceived</t>
+  </si>
+  <si>
+    <t>arises (in); is produced (from)</t>
+  </si>
+  <si>
+    <t>is released (from); is free (from)</t>
+  </si>
+  <si>
+    <t>exists (in); is found (in); is present (in)</t>
+  </si>
+  <si>
+    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
+  </si>
+  <si>
+    <t>is free (from); becomes free (from); is released (from)</t>
+  </si>
+  <si>
+    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
+  </si>
+  <si>
+    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
+  </si>
+  <si>
+    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
+  </si>
+  <si>
+    <t>is hurt; is killed; is destroyed</t>
+  </si>
+  <si>
+    <t>seems; lit. is seen</t>
+  </si>
+  <si>
+    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
+  </si>
+  <si>
+    <t>is seen; is observed; is manifest</t>
+  </si>
+  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
-    <t>is said to be; is called</t>
-  </si>
-  <si>
-    <t>is abandoned; is given up</t>
-  </si>
-  <si>
-    <t>dissolves; finishes; stops; ceases; vanishes</t>
-  </si>
-  <si>
-    <t>is known; is evident; is perceived</t>
-  </si>
-  <si>
-    <t>arises (in); is produced (from)</t>
-  </si>
-  <si>
-    <t>is released (from); is free (from)</t>
-  </si>
-  <si>
-    <t>exists (in); is found (in); is present (in)</t>
-  </si>
-  <si>
     <t>is perturbed; is shaken; is agitated; is anguished</t>
   </si>
   <si>
-    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
-  </si>
-  <si>
-    <t>is free (from); becomes free (from); is released (from)</t>
-  </si>
-  <si>
-    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
-  </si>
-  <si>
-    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
-  </si>
-  <si>
-    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
-  </si>
-  <si>
     <t>disappears; vanishes; perishes; is destroyed</t>
   </si>
   <si>
-    <t>is hurt; is killed; is destroyed</t>
-  </si>
-  <si>
-    <t>seems; lit. is seen</t>
-  </si>
-  <si>
-    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
-  </si>
-  <si>
-    <t>is seen; is observed; is manifest</t>
-  </si>
-  <si>
     <t>moreover; and so; but; or; however</t>
   </si>
   <si>
@@ -3454,12 +3454,15 @@
     <t>indeed; certainly; truly; definitely</t>
   </si>
   <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
+  </si>
+  <si>
     <t>away (from); far away (from); distant (from)</t>
   </si>
   <si>
-    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
-  </si>
-  <si>
     <t>externally; outwardly</t>
   </si>
   <si>
@@ -3472,9 +3475,6 @@
     <t>again; once more</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
     <t>then; also; and so; after that</t>
   </si>
   <si>
@@ -3502,6 +3502,9 @@
     <t>even so much as; even with; even down to; with as little as</t>
   </si>
   <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
     <t>internally; inwardly; personally</t>
   </si>
   <si>
@@ -3538,9 +3541,6 @@
     <t>differently; otherwise</t>
   </si>
   <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
     <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
   </si>
   <si>
@@ -3577,15 +3577,15 @@
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
     <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
   </si>
   <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
     <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
   </si>
   <si>
@@ -3628,60 +3628,60 @@
     <t>preach (to); teaches (to); explains (to)</t>
   </si>
   <si>
+    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
+  </si>
+  <si>
+    <t>honour; reveres; hold in high esteem</t>
+  </si>
+  <si>
+    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
+  </si>
+  <si>
+    <t>is evident; lit. makes itself known</t>
+  </si>
+  <si>
+    <t>fills up; fills out; lit. causes to fill</t>
+  </si>
+  <si>
+    <t>soaks; drenches; lit. makes flow around</t>
+  </si>
+  <si>
+    <t>inclines (towards); bends (towards); directs (towards)</t>
+  </si>
+  <si>
+    <t>explains; illustrates; illuminates; reveals; teaches</t>
+  </si>
+  <si>
+    <t>cleans (from); purifies (of)</t>
+  </si>
+  <si>
+    <t>stretches out; straightens; extends; lit. causes to go forward</t>
+  </si>
+  <si>
+    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
+  </si>
+  <si>
+    <t>builds; has constructed; lit. causes to build</t>
+  </si>
+  <si>
+    <t>prepares; arranges; forms; fashions; constructs</t>
+  </si>
+  <si>
+    <t>generates; produces; lit. causes to be born</t>
+  </si>
+  <si>
+    <t>cultivates; develops; lit. causes to become</t>
+  </si>
+  <si>
+    <t>agrees (with); matches (with); fits (with); fits in (with)</t>
+  </si>
+  <si>
+    <t>fills up; fills to the brim; overflows; lit. causes to overflow</t>
+  </si>
+  <si>
     <t>banishes (from); exiles (from); drives away (from); lit. causes to leave</t>
   </si>
   <si>
-    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
-  </si>
-  <si>
-    <t>honour; reveres; hold in high esteem</t>
-  </si>
-  <si>
-    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
-  </si>
-  <si>
-    <t>is evident; lit. makes itself known</t>
-  </si>
-  <si>
-    <t>fills up; fills out; lit. causes to fill</t>
-  </si>
-  <si>
-    <t>soaks; drenches; lit. makes flow around</t>
-  </si>
-  <si>
-    <t>fills up; fills to the brim; overflows; lit. causes to overflow</t>
-  </si>
-  <si>
-    <t>inclines (towards); bends (towards); directs (towards)</t>
-  </si>
-  <si>
-    <t>explains; illustrates; illuminates; reveals; teaches</t>
-  </si>
-  <si>
-    <t>cleans (from); purifies (of)</t>
-  </si>
-  <si>
-    <t>stretches out; straightens; extends; lit. causes to go forward</t>
-  </si>
-  <si>
-    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
-  </si>
-  <si>
-    <t>builds; has constructed; lit. causes to build</t>
-  </si>
-  <si>
-    <t>prepares; arranges; forms; fashions; constructs</t>
-  </si>
-  <si>
-    <t>cultivates; develops; lit. causes to become</t>
-  </si>
-  <si>
-    <t>generates; produces; lit. causes to be born</t>
-  </si>
-  <si>
-    <t>agrees (with); matches (with); fits (with); fits in (with)</t>
-  </si>
-  <si>
     <t>was careless (about); neglected; was negligent (with); was heedless (about)</t>
   </si>
   <si>
@@ -3697,489 +3697,489 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>saying; mentioning</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>saying; mentioning</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>mansion; stately home; palace; building with pillars</t>
+  </si>
+  <si>
+    <t>prince</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>man of the ruling class; young noble</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>stick; truncheon; nightstick; club</t>
   </si>
   <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; (comm) pond; pool; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
     <t>urine</t>
   </si>
   <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
     <t>Sakyan; of the Sakyan people</t>
   </si>
   <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>mansion; stately home; palace; building with pillars</t>
-  </si>
-  <si>
-    <t>prince</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>man of the ruling class; young noble</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
     <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
@@ -4225,177 +4225,177 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>proceeds; continues; goes forward; practices</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>lives; stays; resides (in)</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>increases; develops; grows</t>
   </si>
   <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
-  </si>
-  <si>
-    <t>proceeds; continues; goes forward; practices</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>lives; stays; resides (in)</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -4411,12 +4411,12 @@
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
+    <t>sleeps</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>sleeps</t>
-  </si>
-  <si>
     <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
@@ -4441,36 +4441,36 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
     <t>knows; knows clearly; understands; distinguishes</t>
   </si>
   <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
+    <t>remains (in); continues (in); persists (in); is established (in); stands firm (in); lit. stands together</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>remains (in); continues (in); persists (in); is established (in); stands firm (in); lit. stands together</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
@@ -4483,6 +4483,9 @@
     <t>takes; grasps; embraces</t>
   </si>
   <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -4492,33 +4495,30 @@
     <t>thinks; imagines; conceives: presumes; supposes</t>
   </si>
   <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
@@ -4576,18 +4576,18 @@
     <t>left; set off (from); went away (from)</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -4600,6 +4600,9 @@
     <t>fire</t>
   </si>
   <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
@@ -4618,9 +4621,6 @@
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -4639,12 +4639,12 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -4684,6 +4684,9 @@
     <t>for us; to us</t>
   </si>
   <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
@@ -4705,9 +4708,6 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -4771,6 +4771,9 @@
     <t>you (object)</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
     <t>for you all; to you all</t>
   </si>
   <si>
@@ -4780,24 +4783,21 @@
     <t>you all; you (royal plural)</t>
   </si>
   <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
     <t>you (subject)</t>
   </si>
   <si>
+    <t>for you; to you</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your; of you</t>
   </si>
   <si>
-    <t>for you; to you</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -4891,27 +4891,30 @@
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
+    <t>mother and father; parents</t>
+  </si>
+  <si>
     <t>brother</t>
   </si>
   <si>
-    <t>mother and father; parents</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
     <t>in future</t>
   </si>
   <si>
@@ -4927,36 +4930,33 @@
     <t>and; both</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>now; immediately</t>
+  </si>
+  <si>
+    <t>today; now</t>
+  </si>
+  <si>
     <t>always; at all times</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>now; immediately</t>
-  </si>
-  <si>
-    <t>today; now</t>
-  </si>
-  <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
     <t>respect; honour</t>
   </si>
   <si>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
     <t>monk; fully ordained monk; mendicant; lit. beggar</t>
   </si>
   <si>
     <t>death; Death</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
@@ -4975,12 +4975,12 @@
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>warding off; repelling; driving off</t>
+  </si>
+  <si>
     <t>hiding place; lit. dive</t>
   </si>
   <si>
-    <t>warding off; repelling; driving off</t>
-  </si>
-  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
@@ -5002,15 +5002,15 @@
     <t>could see; would see</t>
   </si>
   <si>
+    <t>could live; could stay (in)</t>
+  </si>
+  <si>
     <t>would become available (for); would accrue (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
     <t>would be reborn (in); would re-arise (in); lit. could go towards</t>
   </si>
   <si>
-    <t>could live; could stay (in)</t>
-  </si>
-  <si>
     <t>kills; executes</t>
   </si>
   <si>
@@ -5038,6 +5038,12 @@
     <t>direction; cardinal point</t>
   </si>
   <si>
+    <t>sitting; sitting down</t>
+  </si>
+  <si>
+    <t>talk; speech; conversation; discussion</t>
+  </si>
+  <si>
     <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
   </si>
   <si>
@@ -5083,12 +5089,6 @@
     <t>ignorance; illusion; not knowing; not understanding</t>
   </si>
   <si>
-    <t>sitting; sitting down</t>
-  </si>
-  <si>
-    <t>talk; speech; conversation; discussion</t>
-  </si>
-  <si>
     <t>(vinaya) higher ordination as monastic</t>
   </si>
   <si>
@@ -5131,45 +5131,45 @@
     <t>having left; having left behind; having abandoned</t>
   </si>
   <si>
+    <t>having seen; having understood; having found out</t>
+  </si>
+  <si>
+    <t>having known; having found out; having understood</t>
+  </si>
+  <si>
+    <t>having tasted</t>
+  </si>
+  <si>
+    <t>having heard; having listened (to)</t>
+  </si>
+  <si>
+    <t>having suffused; having pervaded; having filled</t>
+  </si>
+  <si>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
+  </si>
+  <si>
+    <t>having bent; having folded</t>
+  </si>
+  <si>
+    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>having walked; having wandered</t>
+  </si>
+  <si>
+    <t>having taken; having grabbed hold (of); having seized</t>
+  </si>
+  <si>
+    <t>having approached; having gone (to); having drawn near (to)</t>
+  </si>
+  <si>
     <t>having raised up; having lifted up</t>
   </si>
   <si>
-    <t>having seen; having understood; having found out</t>
-  </si>
-  <si>
-    <t>having known; having found out; having understood</t>
-  </si>
-  <si>
-    <t>having tasted</t>
-  </si>
-  <si>
-    <t>having heard; having listened (to)</t>
-  </si>
-  <si>
-    <t>having suffused; having pervaded; having filled</t>
-  </si>
-  <si>
-    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
-  </si>
-  <si>
-    <t>having bent; having folded</t>
-  </si>
-  <si>
-    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
-  </si>
-  <si>
-    <t>having done</t>
-  </si>
-  <si>
-    <t>having walked; having wandered</t>
-  </si>
-  <si>
-    <t>having taken; having grabbed hold (of); having seized</t>
-  </si>
-  <si>
-    <t>having approached; having gone (to); having drawn near (to)</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
@@ -5191,24 +5191,24 @@
     <t>guiding; directing; determining; setting; lit. placing forward</t>
   </si>
   <si>
+    <t>adopting; assuming; according (to); lit. taking</t>
+  </si>
+  <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>separating (from); aloof (from)</t>
+  </si>
+  <si>
+    <t>rising (from); emerging (from); getting up (from)</t>
+  </si>
+  <si>
+    <t>sitting down</t>
+  </si>
+  <si>
     <t>attaching; clinging; adhering; sticking</t>
   </si>
   <si>
-    <t>adopting; assuming; according (to); lit. taking</t>
-  </si>
-  <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
-    <t>separating (from); aloof (from)</t>
-  </si>
-  <si>
-    <t>rising (from); emerging (from); getting up (from)</t>
-  </si>
-  <si>
-    <t>sitting down</t>
-  </si>
-  <si>
     <t>stability; constancy; continuity; endurance; persistence; longevity; lit. standing</t>
   </si>
   <si>
@@ -5230,21 +5230,21 @@
     <t>liking; preference; choice; inclination; approval; lit. pleasure</t>
   </si>
   <si>
+    <t>mindfulness; presence; recollection; awareness</t>
+  </si>
+  <si>
+    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
+  </si>
+  <si>
+    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
     <t>good destination; happy fate</t>
   </si>
   <si>
-    <t>mindfulness; presence; recollection; awareness</t>
-  </si>
-  <si>
-    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
     <t>freedom; liberation; release; deliverance</t>
   </si>
   <si>
@@ -5254,42 +5254,42 @@
     <t>wherever; where; when; in which</t>
   </si>
   <si>
+    <t>here; now; in this world</t>
+  </si>
+  <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>in front (of)</t>
+  </si>
+  <si>
+    <t>here; in this regard; in this case</t>
+  </si>
+  <si>
+    <t>on one side</t>
+  </si>
+  <si>
+    <t>everywhere; every place</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>above; overhead</t>
+  </si>
+  <si>
+    <t>since; because; due to the fact that; lit. from which</t>
+  </si>
+  <si>
+    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
+  </si>
+  <si>
     <t>here; in this place; in this case; in this regard</t>
   </si>
   <si>
-    <t>here; now; in this world</t>
-  </si>
-  <si>
-    <t>in front (of)</t>
-  </si>
-  <si>
-    <t>here; in this regard; in this case</t>
-  </si>
-  <si>
-    <t>on one side</t>
-  </si>
-  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; every place</t>
-  </si>
-  <si>
-    <t>there; in that place</t>
-  </si>
-  <si>
-    <t>above; overhead</t>
-  </si>
-  <si>
-    <t>since; because; due to the fact that; lit. from which</t>
-  </si>
-  <si>
-    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
-  </si>
-  <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -5422,6 +5422,9 @@
     <t>making effort; exerting; striving; trying (to)</t>
   </si>
   <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
     <t>cloth; clothes; robe</t>
   </si>
   <si>
@@ -5473,22 +5476,19 @@
     <t>shelter; refuge; help; lit. going to</t>
   </si>
   <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
     <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
     <t>eating; taking food</t>
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
   </si>
   <si>
     <t>good; benefit; merit; good deed; doing good</t>
@@ -9636,7 +9636,7 @@
         <v>941</v>
       </c>
       <c r="C200" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="D200" t="s">
         <v>941</v>
@@ -9653,7 +9653,7 @@
         <v>941</v>
       </c>
       <c r="C201" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D201" t="s">
         <v>941</v>
@@ -9670,7 +9670,7 @@
         <v>941</v>
       </c>
       <c r="C202" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D202" t="s">
         <v>941</v>
@@ -9687,7 +9687,7 @@
         <v>941</v>
       </c>
       <c r="C203" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D203" t="s">
         <v>941</v>
@@ -9704,7 +9704,7 @@
         <v>941</v>
       </c>
       <c r="C204" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D204" t="s">
         <v>941</v>
@@ -9721,7 +9721,7 @@
         <v>941</v>
       </c>
       <c r="C205" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D205" t="s">
         <v>941</v>
@@ -9738,7 +9738,7 @@
         <v>941</v>
       </c>
       <c r="C206" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D206" t="s">
         <v>941</v>
@@ -9755,7 +9755,7 @@
         <v>941</v>
       </c>
       <c r="C207" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D207" t="s">
         <v>941</v>
@@ -9772,7 +9772,7 @@
         <v>941</v>
       </c>
       <c r="C208" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D208" t="s">
         <v>941</v>
@@ -9789,7 +9789,7 @@
         <v>941</v>
       </c>
       <c r="C209" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D209" t="s">
         <v>941</v>
@@ -9806,7 +9806,7 @@
         <v>941</v>
       </c>
       <c r="C210" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D210" t="s">
         <v>941</v>
@@ -9823,7 +9823,7 @@
         <v>941</v>
       </c>
       <c r="C211" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D211" t="s">
         <v>941</v>
@@ -9840,7 +9840,7 @@
         <v>941</v>
       </c>
       <c r="C212" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D212" t="s">
         <v>941</v>
@@ -9857,7 +9857,7 @@
         <v>941</v>
       </c>
       <c r="C213" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D213" t="s">
         <v>941</v>
@@ -9874,7 +9874,7 @@
         <v>941</v>
       </c>
       <c r="C214" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D214" t="s">
         <v>941</v>
@@ -9891,7 +9891,7 @@
         <v>941</v>
       </c>
       <c r="C215" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D215" t="s">
         <v>941</v>
@@ -9908,7 +9908,7 @@
         <v>941</v>
       </c>
       <c r="C216" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D216" t="s">
         <v>941</v>
@@ -9925,7 +9925,7 @@
         <v>941</v>
       </c>
       <c r="C217" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D217" t="s">
         <v>941</v>
@@ -9942,7 +9942,7 @@
         <v>941</v>
       </c>
       <c r="C218" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D218" t="s">
         <v>941</v>
@@ -9959,7 +9959,7 @@
         <v>941</v>
       </c>
       <c r="C219" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D219" t="s">
         <v>941</v>
@@ -9976,7 +9976,7 @@
         <v>941</v>
       </c>
       <c r="C220" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D220" t="s">
         <v>941</v>
@@ -9993,7 +9993,7 @@
         <v>941</v>
       </c>
       <c r="C221" t="s">
-        <v>1152</v>
+        <v>1173</v>
       </c>
       <c r="D221" t="s">
         <v>941</v>
@@ -13563,7 +13563,7 @@
         <v>939</v>
       </c>
       <c r="C431" t="s">
-        <v>1383</v>
+        <v>1252</v>
       </c>
       <c r="D431" t="s">
         <v>1887</v>
@@ -13580,7 +13580,7 @@
         <v>939</v>
       </c>
       <c r="C432" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D432" t="s">
         <v>1887</v>
@@ -13597,7 +13597,7 @@
         <v>939</v>
       </c>
       <c r="C433" t="s">
-        <v>1254</v>
+        <v>1384</v>
       </c>
       <c r="D433" t="s">
         <v>1887</v>
@@ -13917,7 +13917,7 @@
         <v>455</v>
       </c>
       <c r="B452" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="C452" t="s">
         <v>1403</v>
@@ -14070,7 +14070,7 @@
         <v>464</v>
       </c>
       <c r="B461" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="C461" t="s">
         <v>1412</v>
@@ -18748,7 +18748,7 @@
         <v>949</v>
       </c>
       <c r="C736" t="s">
-        <v>1230</v>
+        <v>1686</v>
       </c>
       <c r="D736" t="s">
         <v>1908</v>
@@ -18765,7 +18765,7 @@
         <v>949</v>
       </c>
       <c r="C737" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D737" t="s">
         <v>1908</v>
@@ -18782,7 +18782,7 @@
         <v>949</v>
       </c>
       <c r="C738" t="s">
-        <v>1687</v>
+        <v>1229</v>
       </c>
       <c r="D738" t="s">
         <v>1908</v>
@@ -19275,7 +19275,7 @@
         <v>946</v>
       </c>
       <c r="C767" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="D767" t="s">
         <v>946</v>
@@ -19292,7 +19292,7 @@
         <v>946</v>
       </c>
       <c r="C768" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="D768" t="s">
         <v>946</v>
@@ -19955,7 +19955,7 @@
         <v>941</v>
       </c>
       <c r="C807" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="D807" t="s">
         <v>941</v>
@@ -19972,7 +19972,7 @@
         <v>941</v>
       </c>
       <c r="C808" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="D808" t="s">
         <v>941</v>

--- a/pali-class/vocab/vocab-class14.xlsx
+++ b/pali-class/vocab/vocab-class14.xlsx
@@ -451,12 +451,12 @@
     <t>aṭṭhama 1</t>
   </si>
   <si>
+    <t>dasama 1</t>
+  </si>
+  <si>
     <t>navama</t>
   </si>
   <si>
-    <t>dasama 1</t>
-  </si>
-  <si>
     <t>pañcama</t>
   </si>
   <si>
@@ -3301,10 +3301,10 @@
     <t>eighth (8th)</t>
   </si>
   <si>
+    <t>tenth (10th)</t>
+  </si>
+  <si>
     <t>ninth (9th)</t>
-  </si>
-  <si>
-    <t>tenth (10th)</t>
   </si>
   <si>
     <t>fifth (5th)</t>

--- a/pali-class/vocab/vocab-class14.xlsx
+++ b/pali-class/vocab/vocab-class14.xlsx
@@ -46,39 +46,39 @@
     <t>amu</t>
   </si>
   <si>
+    <t>jānanta</t>
+  </si>
+  <si>
     <t>passanta 1</t>
   </si>
   <si>
-    <t>jānanta</t>
-  </si>
-  <si>
     <t>samanupassanta</t>
   </si>
   <si>
     <t>tiṭṭhanta 1</t>
   </si>
   <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
     <t>anussaranta</t>
   </si>
   <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
-  </si>
-  <si>
     <t>tiṭṭhanta 2</t>
   </si>
   <si>
+    <t>apassanta</t>
+  </si>
+  <si>
     <t>ajānanta</t>
   </si>
   <si>
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>apassanta</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
@@ -88,15 +88,15 @@
     <t>cavamāna</t>
   </si>
   <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
     <t>caramāna</t>
   </si>
   <si>
     <t>sampassamāna</t>
   </si>
   <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
@@ -175,6 +175,9 @@
     <t>aparikkamana</t>
   </si>
   <si>
+    <t>anuttara</t>
+  </si>
+  <si>
     <t>anatta 1</t>
   </si>
   <si>
@@ -184,114 +187,111 @@
     <t>sata 1.1</t>
   </si>
   <si>
+    <t>majjhima 1</t>
+  </si>
+  <si>
+    <t>purima 1</t>
+  </si>
+  <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
+    <t>manāpa 1</t>
+  </si>
+  <si>
+    <t>piya 1</t>
+  </si>
+  <si>
+    <t>sukara</t>
+  </si>
+  <si>
+    <t>byatta</t>
+  </si>
+  <si>
+    <t>agilāna 1</t>
+  </si>
+  <si>
+    <t>dukkha 2</t>
+  </si>
+  <si>
+    <t>pāṭikaṅkha</t>
+  </si>
+  <si>
+    <t>avera 1</t>
+  </si>
+  <si>
+    <t>sukka 1</t>
+  </si>
+  <si>
+    <t>sāraṇīya 1.1</t>
+  </si>
+  <si>
+    <t>sampajāna 1</t>
+  </si>
+  <si>
+    <t>animitta 1</t>
+  </si>
+  <si>
+    <t>bhūta 1</t>
+  </si>
+  <si>
+    <t>oḷārika 2</t>
+  </si>
+  <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
+    <t>akhaṇḍa</t>
+  </si>
+  <si>
+    <t>akusala 1</t>
+  </si>
+  <si>
+    <t>sagga 1.1</t>
+  </si>
+  <si>
+    <t>uttama 1</t>
+  </si>
+  <si>
+    <t>abbhuta 1</t>
+  </si>
+  <si>
+    <t>acchariya 1</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
+    <t>sassata</t>
+  </si>
+  <si>
+    <t>dhuva 1</t>
+  </si>
+  <si>
+    <t>abhikkanta 3</t>
+  </si>
+  <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>sārambha 2.1</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
+  </si>
+  <si>
     <t>dakkhiṇa 1</t>
   </si>
   <si>
-    <t>majjhima 1</t>
-  </si>
-  <si>
-    <t>purima 1</t>
-  </si>
-  <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
-    <t>manāpa 1</t>
-  </si>
-  <si>
-    <t>piya 1</t>
-  </si>
-  <si>
-    <t>sukara</t>
-  </si>
-  <si>
-    <t>byatta</t>
-  </si>
-  <si>
-    <t>agilāna 1</t>
-  </si>
-  <si>
-    <t>dukkha 2</t>
-  </si>
-  <si>
-    <t>pāṭikaṅkha</t>
-  </si>
-  <si>
-    <t>avera 1</t>
-  </si>
-  <si>
-    <t>sukka 1</t>
-  </si>
-  <si>
-    <t>anuttara</t>
-  </si>
-  <si>
-    <t>sāraṇīya 1.1</t>
-  </si>
-  <si>
-    <t>sampajāna 1</t>
-  </si>
-  <si>
-    <t>animitta 1</t>
-  </si>
-  <si>
-    <t>bhūta 1</t>
-  </si>
-  <si>
-    <t>oḷārika 2</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
-    <t>akhaṇḍa</t>
-  </si>
-  <si>
-    <t>akusala 1</t>
-  </si>
-  <si>
-    <t>sagga 1.1</t>
-  </si>
-  <si>
-    <t>uttama 1</t>
-  </si>
-  <si>
-    <t>abbhuta 1</t>
-  </si>
-  <si>
-    <t>acchariya 1</t>
-  </si>
-  <si>
-    <t>sassata</t>
-  </si>
-  <si>
-    <t>dhuva 1</t>
-  </si>
-  <si>
-    <t>abhikkanta 3</t>
-  </si>
-  <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
-    <t>sārambha 2.1</t>
-  </si>
-  <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
     <t>panta 2</t>
   </si>
   <si>
@@ -376,33 +376,33 @@
     <t>paricita</t>
   </si>
   <si>
+    <t>diṭṭha 1.1</t>
+  </si>
+  <si>
+    <t>vippamutta</t>
+  </si>
+  <si>
+    <t>puṭṭha 1.1</t>
+  </si>
+  <si>
+    <t>uppanna 1</t>
+  </si>
+  <si>
+    <t>samāhita 1</t>
+  </si>
+  <si>
+    <t>upaṭṭhita 1</t>
+  </si>
+  <si>
+    <t>dinna 1</t>
+  </si>
+  <si>
+    <t>paripūra 1</t>
+  </si>
+  <si>
     <t>cuta 1.1</t>
   </si>
   <si>
-    <t>diṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>vippamutta</t>
-  </si>
-  <si>
-    <t>puṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>uppanna 1</t>
-  </si>
-  <si>
-    <t>samāhita 1</t>
-  </si>
-  <si>
-    <t>upaṭṭhita 1</t>
-  </si>
-  <si>
-    <t>dinna 1</t>
-  </si>
-  <si>
-    <t>paripūra 1</t>
-  </si>
-  <si>
     <t>phuṭṭha 1</t>
   </si>
   <si>
@@ -424,12 +424,12 @@
     <t>bhayato</t>
   </si>
   <si>
+    <t>aniccato</t>
+  </si>
+  <si>
     <t>anattato</t>
   </si>
   <si>
-    <t>aniccato</t>
-  </si>
-  <si>
     <t>bahu</t>
   </si>
   <si>
@@ -448,6 +448,9 @@
     <t>viññū 1</t>
   </si>
   <si>
+    <t>chaṭṭha</t>
+  </si>
+  <si>
     <t>aṭṭhama 1</t>
   </si>
   <si>
@@ -472,27 +475,24 @@
     <t>paṭhama 1</t>
   </si>
   <si>
-    <t>chaṭṭha</t>
+    <t>nava 2</t>
+  </si>
+  <si>
+    <t>satta 1.1</t>
+  </si>
+  <si>
+    <t>pañca</t>
+  </si>
+  <si>
+    <t>cha 1.1</t>
+  </si>
+  <si>
+    <t>aṭṭha 1.1</t>
   </si>
   <si>
     <t>dasa 1.1</t>
   </si>
   <si>
-    <t>aṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>nava 2</t>
-  </si>
-  <si>
-    <t>satta 1.1</t>
-  </si>
-  <si>
-    <t>pañca</t>
-  </si>
-  <si>
-    <t>cha 1.1</t>
-  </si>
-  <si>
     <t>sata 2.1</t>
   </si>
   <si>
@@ -547,6 +547,9 @@
     <t>virajjati 1</t>
   </si>
   <si>
+    <t>dissati 1</t>
+  </si>
+  <si>
     <t>parimuccati</t>
   </si>
   <si>
@@ -559,9 +562,6 @@
     <t>khajjati 1</t>
   </si>
   <si>
-    <t>dissati 1</t>
-  </si>
-  <si>
     <t>chijjati 1</t>
   </si>
   <si>
@@ -604,99 +604,99 @@
     <t>hi 1</t>
   </si>
   <si>
+    <t>santike 1</t>
+  </si>
+  <si>
+    <t>dūre 2</t>
+  </si>
+  <si>
+    <t>bahiddhā 1</t>
+  </si>
+  <si>
+    <t>sādhukaṃ</t>
+  </si>
+  <si>
+    <t>divasaṃ</t>
+  </si>
+  <si>
+    <t>puna</t>
+  </si>
+  <si>
+    <t>sace</t>
+  </si>
+  <si>
+    <t>iti</t>
+  </si>
+  <si>
+    <t>amutra</t>
+  </si>
+  <si>
+    <t>ito 2</t>
+  </si>
+  <si>
+    <t>pacchato 2</t>
+  </si>
+  <si>
+    <t>tiriyaṃ 1</t>
+  </si>
+  <si>
+    <t>adho 1</t>
+  </si>
+  <si>
+    <t>uddhaṃ 1</t>
+  </si>
+  <si>
+    <t>antamaso 1</t>
+  </si>
+  <si>
     <t>ce 1</t>
   </si>
   <si>
-    <t>santike 1</t>
-  </si>
-  <si>
-    <t>dūre 2</t>
-  </si>
-  <si>
-    <t>bahiddhā 1</t>
-  </si>
-  <si>
-    <t>sādhukaṃ</t>
-  </si>
-  <si>
-    <t>divasaṃ</t>
-  </si>
-  <si>
-    <t>puna</t>
-  </si>
-  <si>
-    <t>sace</t>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
+    <t>yoniso</t>
+  </si>
+  <si>
+    <t>ajjhattaṃ</t>
+  </si>
+  <si>
+    <t>avidūre</t>
+  </si>
+  <si>
+    <t>kira 1</t>
+  </si>
+  <si>
+    <t>ṭhānaso 1</t>
+  </si>
+  <si>
+    <t>vata 1.2</t>
+  </si>
+  <si>
+    <t>sammā 1</t>
+  </si>
+  <si>
+    <t>atha 2</t>
+  </si>
+  <si>
+    <t>eva 1</t>
+  </si>
+  <si>
+    <t>vitthārena 1</t>
+  </si>
+  <si>
+    <t>sādhu 3</t>
+  </si>
+  <si>
+    <t>dūrato</t>
   </si>
   <si>
     <t>atha 1</t>
   </si>
   <si>
-    <t>iti</t>
-  </si>
-  <si>
-    <t>amutra</t>
-  </si>
-  <si>
-    <t>ito 2</t>
-  </si>
-  <si>
-    <t>pacchato 2</t>
-  </si>
-  <si>
-    <t>tiriyaṃ 1</t>
-  </si>
-  <si>
-    <t>adho 1</t>
-  </si>
-  <si>
-    <t>uddhaṃ 1</t>
-  </si>
-  <si>
-    <t>antamaso 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
-    <t>ajjhattaṃ</t>
-  </si>
-  <si>
-    <t>avidūre</t>
-  </si>
-  <si>
-    <t>kira 1</t>
-  </si>
-  <si>
-    <t>ṭhānaso 1</t>
-  </si>
-  <si>
-    <t>vata 1.2</t>
-  </si>
-  <si>
-    <t>sammā 1</t>
-  </si>
-  <si>
-    <t>atha 2</t>
-  </si>
-  <si>
-    <t>eva 1</t>
-  </si>
-  <si>
-    <t>vitthārena 1</t>
-  </si>
-  <si>
-    <t>sādhu 3</t>
-  </si>
-  <si>
-    <t>dūrato</t>
-  </si>
-  <si>
     <t>aññathā 1</t>
   </si>
   <si>
-    <t>yoniso</t>
-  </si>
-  <si>
     <t>saṃvijjamāna</t>
   </si>
   <si>
@@ -730,15 +730,15 @@
     <t>kāretabba 1</t>
   </si>
   <si>
+    <t>daṭṭhabba 1</t>
+  </si>
+  <si>
     <t>bhāvetabba</t>
   </si>
   <si>
     <t>sevitabba 2</t>
   </si>
   <si>
-    <t>daṭṭhabba 1</t>
-  </si>
-  <si>
     <t>pahātabba</t>
   </si>
   <si>
@@ -778,45 +778,45 @@
     <t>voropeti</t>
   </si>
   <si>
+    <t>sameti 1.1</t>
+  </si>
+  <si>
+    <t>māneti</t>
+  </si>
+  <si>
+    <t>upaṭṭhāpeti 2</t>
+  </si>
+  <si>
+    <t>paññāpeti 3</t>
+  </si>
+  <si>
+    <t>paripūreti 1</t>
+  </si>
+  <si>
+    <t>parisandeti</t>
+  </si>
+  <si>
+    <t>abhininnāmeti 1</t>
+  </si>
+  <si>
+    <t>pakāseti 2</t>
+  </si>
+  <si>
+    <t>parisodheti</t>
+  </si>
+  <si>
+    <t>pasāreti</t>
+  </si>
+  <si>
+    <t>atikkāmeti 2</t>
+  </si>
+  <si>
+    <t>kāreti 4</t>
+  </si>
+  <si>
     <t>deseti 1</t>
   </si>
   <si>
-    <t>sameti 1.1</t>
-  </si>
-  <si>
-    <t>māneti</t>
-  </si>
-  <si>
-    <t>upaṭṭhāpeti 2</t>
-  </si>
-  <si>
-    <t>paññāpeti 3</t>
-  </si>
-  <si>
-    <t>paripūreti 1</t>
-  </si>
-  <si>
-    <t>parisandeti</t>
-  </si>
-  <si>
-    <t>abhininnāmeti 1</t>
-  </si>
-  <si>
-    <t>pakāseti 2</t>
-  </si>
-  <si>
-    <t>parisodheti</t>
-  </si>
-  <si>
-    <t>pasāreti</t>
-  </si>
-  <si>
-    <t>atikkāmeti 2</t>
-  </si>
-  <si>
-    <t>kāreti 4</t>
-  </si>
-  <si>
     <t>kappeti 1</t>
   </si>
   <si>
@@ -847,285 +847,333 @@
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>vāda 4</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
     <t>dhamma 1.03</t>
   </si>
   <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>vāda 4</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
     <t>samudaya 1</t>
   </si>
   <si>
@@ -1144,15 +1192,9 @@
     <t>māra</t>
   </si>
   <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
     <t>ogha 1</t>
   </si>
   <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
     <t>ñāya</t>
   </si>
   <si>
@@ -1165,24 +1207,15 @@
     <t>uddesa 1</t>
   </si>
   <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
     <t>khandha 3</t>
   </si>
   <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
     <t>sota 1.1</t>
   </si>
   <si>
     <t>vūpasama 1</t>
   </si>
   <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
     <t>paṭilābha</t>
   </si>
   <si>
@@ -1225,24 +1258,15 @@
     <t>kumāra 2</t>
   </si>
   <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
     <t>paribbājaka</t>
   </si>
   <si>
     <t>rukkha</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
     <t>gabbha 3</t>
   </si>
   <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
     <t>uppāda 1.1</t>
   </si>
   <si>
@@ -1252,9 +1276,6 @@
     <t>moha 1</t>
   </si>
   <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
     <t>rājañña</t>
   </si>
   <si>
@@ -1264,27 +1285,12 @@
     <t>kassapa 1</t>
   </si>
   <si>
-    <t>cora</t>
-  </si>
-  <si>
     <t>attha 2.1</t>
   </si>
   <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
     <t>amanasikāra 1</t>
   </si>
   <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
     <t>udapāna</t>
   </si>
   <si>
@@ -1312,9 +1318,6 @@
     <t>thera 1.2</t>
   </si>
   <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -1327,9 +1330,6 @@
     <t>passāva</t>
   </si>
   <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
     <t>manasikāra</t>
   </si>
   <si>
@@ -1384,6 +1384,9 @@
     <t>pasavati 2</t>
   </si>
   <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
     <t>abhivaḍḍhati</t>
   </si>
   <si>
@@ -1399,99 +1402,96 @@
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
     <t>ārabhati 1.1</t>
   </si>
   <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
   </si>
   <si>
     <t>bhāsati 1.1</t>
   </si>
   <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
     <t>vattati 1</t>
   </si>
   <si>
     <t>labhati 1</t>
   </si>
   <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
     <t>nisīdati</t>
   </si>
   <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
     <t>khādati</t>
   </si>
   <si>
@@ -1570,12 +1570,12 @@
     <t>seti 2</t>
   </si>
   <si>
+    <t>deti 1</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>eti 1</t>
   </si>
   <si>
@@ -1645,42 +1645,48 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
     <t>upādiyati</t>
   </si>
   <si>
     <t>atthi 2</t>
   </si>
   <si>
+    <t>atthi 1</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>amha 1.1</t>
   </si>
   <si>
@@ -1690,15 +1696,9 @@
     <t>attha 4.2</t>
   </si>
   <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>santi 3</t>
   </si>
   <si>
-    <t>atthi 1</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -1795,15 +1795,15 @@
     <t>ajjhabhāsi</t>
   </si>
   <si>
+    <t>aṭṭhāsi 1</t>
+  </si>
+  <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>abhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
-    <t>aṭṭhāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -1813,18 +1813,18 @@
     <t>mada 1</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>ājīva</t>
   </si>
   <si>
     <t>appamāda</t>
   </si>
   <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>taca 1</t>
   </si>
   <si>
@@ -2032,12 +2032,12 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
@@ -2068,6 +2068,9 @@
     <t>paricarati 3</t>
   </si>
   <si>
+    <t>dāni</t>
+  </si>
+  <si>
     <t>kālena</t>
   </si>
   <si>
@@ -2086,18 +2089,15 @@
     <t>sadā</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
     <t>ca 1</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>dāni</t>
-  </si>
-  <si>
     <t>ajja</t>
   </si>
   <si>
@@ -2206,6 +2206,9 @@
     <t>paññā 1</t>
   </si>
   <si>
+    <t>devatā</t>
+  </si>
+  <si>
     <t>abhijjhā</t>
   </si>
   <si>
@@ -2239,9 +2242,6 @@
     <t>pabbajjā</t>
   </si>
   <si>
-    <t>devatā</t>
-  </si>
-  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
@@ -2278,12 +2278,12 @@
     <t>vipassanā</t>
   </si>
   <si>
+    <t>ovāda</t>
+  </si>
+  <si>
     <t>asammosa</t>
   </si>
   <si>
-    <t>ovāda</t>
-  </si>
-  <si>
     <t>gahetvā 5</t>
   </si>
   <si>
@@ -2473,6 +2473,9 @@
     <t>pāripūrī</t>
   </si>
   <si>
+    <t>bhikkhunī</t>
+  </si>
+  <si>
     <t>anusāsanī</t>
   </si>
   <si>
@@ -2482,9 +2485,6 @@
     <t>bārāṇasī 1</t>
   </si>
   <si>
-    <t>bhikkhunī</t>
-  </si>
-  <si>
     <t>sāvatthī</t>
   </si>
   <si>
@@ -2506,234 +2506,237 @@
     <t>pāpa 3</t>
   </si>
   <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>sukha 2</t>
+  </si>
+  <si>
+    <t>hita 3</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>brahmacariya 1</t>
+  </si>
+  <si>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>kula 2</t>
+  </si>
+  <si>
+    <t>ratana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
+    <t>sīsa 1</t>
+  </si>
+  <si>
+    <t>bala 2</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
     <t>bhūta 3</t>
   </si>
   <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
-  </si>
-  <si>
-    <t>sukha 2</t>
-  </si>
-  <si>
-    <t>hita 3</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>vīriya 1</t>
-  </si>
-  <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>kula 2</t>
-  </si>
-  <si>
-    <t>ratana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1.1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>vattha 1.1</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>ñāṇa</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>dukkha 3</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
   </si>
   <si>
     <t>arañña</t>
   </si>
   <si>
-    <t>sīsa 1</t>
-  </si>
-  <si>
-    <t>bala 2</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1.1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>vattha 1.1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>ñāṇa</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>saraṇa 2.1</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
+    <t>citta 1.1</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>rūpa 3</t>
+  </si>
+  <si>
+    <t>viññāṇa 1</t>
+  </si>
+  <si>
+    <t>addhāna 2</t>
+  </si>
+  <si>
+    <t>dāna 1.2</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>maṃsa 1</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>somanassa</t>
+  </si>
+  <si>
+    <t>sāsana 1</t>
+  </si>
+  <si>
+    <t>bhatta 1.1</t>
+  </si>
+  <si>
+    <t>pāra 1.1</t>
+  </si>
+  <si>
+    <t>ātappa</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>bala 1</t>
+  </si>
+  <si>
+    <t>nimitta 1</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>jīvita 1</t>
+  </si>
+  <si>
+    <t>ghāna</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>appaka 2</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>jhāna 2</t>
   </si>
   <si>
     <t>dassanāya 2</t>
   </si>
   <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2.1</t>
-  </si>
-  <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>rūpa 3</t>
-  </si>
-  <si>
-    <t>viññāṇa 1</t>
-  </si>
-  <si>
-    <t>addhāna 2</t>
-  </si>
-  <si>
-    <t>dāna 1.2</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>maṃsa 1</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>somanassa</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>sāsana 1</t>
-  </si>
-  <si>
-    <t>bhatta 1.1</t>
-  </si>
-  <si>
-    <t>pāra 1.1</t>
-  </si>
-  <si>
-    <t>ātappa</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>bala 1</t>
-  </si>
-  <si>
-    <t>nimitta 1</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>jīvita 1</t>
-  </si>
-  <si>
-    <t>ghāna</t>
-  </si>
-  <si>
-    <t>appaka 2</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>citta 1.1</t>
-  </si>
-  <si>
-    <t>jhāna 2</t>
-  </si>
-  <si>
     <t>dukkaṭa 3</t>
   </si>
   <si>
@@ -2746,9 +2749,6 @@
     <t>pārājika 3</t>
   </si>
   <si>
-    <t>brahmacariya 1</t>
-  </si>
-  <si>
     <t>saṃyojana 1</t>
   </si>
   <si>
@@ -2776,30 +2776,30 @@
     <t>api 1.1</t>
   </si>
   <si>
+    <t>kathaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 3</t>
+  </si>
+  <si>
+    <t>yāva 1</t>
+  </si>
+  <si>
+    <t>sakkā 1</t>
+  </si>
+  <si>
+    <t>alaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 5</t>
+  </si>
+  <si>
+    <t>api 1.2</t>
+  </si>
+  <si>
     <t>alaṃ 2</t>
   </si>
   <si>
-    <t>kathaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 3</t>
-  </si>
-  <si>
-    <t>yāva 1</t>
-  </si>
-  <si>
-    <t>sakkā 1</t>
-  </si>
-  <si>
-    <t>alaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 5</t>
-  </si>
-  <si>
-    <t>api 1.2</t>
-  </si>
-  <si>
     <t>samanupassituṃ</t>
   </si>
   <si>
@@ -2818,12 +2818,12 @@
     <t>āyu 2</t>
   </si>
   <si>
+    <t>vatthu 2</t>
+  </si>
+  <si>
     <t>cakkhu 1</t>
   </si>
   <si>
-    <t>vatthu 2</t>
-  </si>
-  <si>
     <t>pron</t>
   </si>
   <si>
@@ -2896,39 +2896,39 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
     <t>seeing</t>
   </si>
   <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
     <t>seeing; perceiving</t>
   </si>
   <si>
     <t>standing; standing still</t>
   </si>
   <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
     <t>remembering; recollecting; keeping in mind</t>
   </si>
   <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
-  </si>
-  <si>
     <t>lasting; remaining; persisting; lit. standing</t>
   </si>
   <si>
+    <t>not seeing; not noticing; not aware</t>
+  </si>
+  <si>
     <t>not knowing; being ignorant (of)</t>
   </si>
   <si>
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>not seeing; not noticing; not aware</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
@@ -2938,15 +2938,15 @@
     <t>falling away; dying</t>
   </si>
   <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
     <t>walking; walking about; wandering around (in); going around</t>
   </si>
   <si>
     <t>seeing; observing; considering</t>
   </si>
   <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
@@ -3025,6 +3025,9 @@
     <t>not accessible; not approachable; lit. with no space around</t>
   </si>
   <si>
+    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
+  </si>
+  <si>
     <t>impersonal; not oneself; non-subjective; not suitable to identify with; coreless; essenceless</t>
   </si>
   <si>
@@ -3034,114 +3037,111 @@
     <t>mindful; present; attentive</t>
   </si>
   <si>
+    <t>middle; middling; medium; medium-sized; moderate</t>
+  </si>
+  <si>
+    <t>earlier; past; former; previous</t>
+  </si>
+  <si>
+    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
+  </si>
+  <si>
+    <t>pleasant; likeable; attractive; agreeable; lit. obtained by mind</t>
+  </si>
+  <si>
+    <t>dear (to); beloved (by); loved (by)</t>
+  </si>
+  <si>
+    <t>easily done; easy to do; easy to make</t>
+  </si>
+  <si>
+    <t>experienced; learned; competent; trained; lit. distinguished</t>
+  </si>
+  <si>
+    <t>not sick; healthy</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished</t>
+  </si>
+  <si>
+    <t>kind; friendly; peaceful; free of ill-will; without animosity</t>
+  </si>
+  <si>
+    <t>pure; bright</t>
+  </si>
+  <si>
+    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
+  </si>
+  <si>
+    <t>clearly aware; fully knowing; completely comprehending</t>
+  </si>
+  <si>
+    <t>signless; featureless; free of mental images; lit. no sign</t>
+  </si>
+  <si>
+    <t>existing; born; living; lit. become</t>
+  </si>
+  <si>
+    <t>(of food) solid; heavy; substantial</t>
+  </si>
+  <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
+    <t>unbroken; unfragmented; whole</t>
+  </si>
+  <si>
+    <t>unskilful; incompetent; inexperienced</t>
+  </si>
+  <si>
+    <t>heavenly</t>
+  </si>
+  <si>
+    <t>best; highest; ultimate; supreme; top</t>
+  </si>
+  <si>
+    <t>marvellous; extraordinary; unbelievable; astonishing</t>
+  </si>
+  <si>
+    <t>wonderful; marvellous</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
+    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
+  </si>
+  <si>
+    <t>stable; enduring; eternal; everlasting</t>
+  </si>
+  <si>
+    <t>progressing; moving on; (comm) ending; depletion</t>
+  </si>
+  <si>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>harmful; hurtful; injurious (to living creatures)</t>
+  </si>
+  <si>
+    <t>dark; black</t>
+  </si>
+  <si>
     <t>right (hand side)</t>
   </si>
   <si>
-    <t>middle; middling; medium; medium-sized; moderate</t>
-  </si>
-  <si>
-    <t>earlier; past; former; previous</t>
-  </si>
-  <si>
-    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
-  </si>
-  <si>
-    <t>pleasant; likeable; attractive; agreeable; lit. obtained by mind</t>
-  </si>
-  <si>
-    <t>dear (to); beloved (by); loved (by)</t>
-  </si>
-  <si>
-    <t>easily done; easy to do; easy to make</t>
-  </si>
-  <si>
-    <t>experienced; learned; competent; trained; lit. distinguished</t>
-  </si>
-  <si>
-    <t>not sick; healthy</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished</t>
-  </si>
-  <si>
-    <t>kind; friendly; peaceful; free of ill-will; without animosity</t>
-  </si>
-  <si>
-    <t>pure; bright</t>
-  </si>
-  <si>
-    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
-  </si>
-  <si>
-    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
-  </si>
-  <si>
-    <t>clearly aware; fully knowing; completely comprehending</t>
-  </si>
-  <si>
-    <t>signless; featureless; free of mental images; lit. no sign</t>
-  </si>
-  <si>
-    <t>existing; born; living; lit. become</t>
-  </si>
-  <si>
-    <t>(of food) solid; heavy; substantial</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
-    <t>unbroken; unfragmented; whole</t>
-  </si>
-  <si>
-    <t>unskilful; incompetent; inexperienced</t>
-  </si>
-  <si>
-    <t>heavenly</t>
-  </si>
-  <si>
-    <t>best; highest; ultimate; supreme; top</t>
-  </si>
-  <si>
-    <t>marvellous; extraordinary; unbelievable; astonishing</t>
-  </si>
-  <si>
-    <t>wonderful; marvellous</t>
-  </si>
-  <si>
-    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
-  </si>
-  <si>
-    <t>stable; enduring; eternal; everlasting</t>
-  </si>
-  <si>
-    <t>progressing; moving on; (comm) ending; depletion</t>
-  </si>
-  <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
-    <t>harmful; hurtful; injurious (to living creatures)</t>
-  </si>
-  <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
     <t>secluded; isolated; solitary</t>
   </si>
   <si>
@@ -3226,33 +3226,33 @@
     <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
   </si>
   <si>
+    <t>seen; found; visible</t>
+  </si>
+  <si>
+    <t>freed (from); released (from); saved (from)</t>
+  </si>
+  <si>
+    <t>asked; questioned</t>
+  </si>
+  <si>
+    <t>arisen; appeared; come into being</t>
+  </si>
+  <si>
+    <t>composed; centred; settled; collected; concentrated</t>
+  </si>
+  <si>
+    <t>present; in attendance; available; lit. stood near</t>
+  </si>
+  <si>
+    <t>given (to); offered (to)</t>
+  </si>
+  <si>
+    <t>full; filled up; complete</t>
+  </si>
+  <si>
     <t>passed away; died</t>
   </si>
   <si>
-    <t>seen; found; visible</t>
-  </si>
-  <si>
-    <t>freed (from); released (from); saved (from)</t>
-  </si>
-  <si>
-    <t>asked; questioned</t>
-  </si>
-  <si>
-    <t>arisen; appeared; come into being</t>
-  </si>
-  <si>
-    <t>composed; centred; settled; collected; concentrated</t>
-  </si>
-  <si>
-    <t>present; in attendance; available; lit. stood near</t>
-  </si>
-  <si>
-    <t>given (to); offered (to)</t>
-  </si>
-  <si>
-    <t>full; filled up; complete</t>
-  </si>
-  <si>
     <t>touched (by); contacted (by); experienced</t>
   </si>
   <si>
@@ -3274,12 +3274,12 @@
     <t>as dangerous; as fearful</t>
   </si>
   <si>
+    <t>as impermanent; as unstable; as transient; as unreliable</t>
+  </si>
+  <si>
     <t>as impersonal; as not oneself; as non-subjective</t>
   </si>
   <si>
-    <t>as impermanent; as unstable; as transient; as unreliable</t>
-  </si>
-  <si>
     <t>many; much; lots (of); a lot (of); great; large</t>
   </si>
   <si>
@@ -3298,6 +3298,9 @@
     <t>wise; intelligent; discerning; knowledgeable</t>
   </si>
   <si>
+    <t>sixth (6th)</t>
+  </si>
+  <si>
     <t>eighth (8th)</t>
   </si>
   <si>
@@ -3322,27 +3325,24 @@
     <t>first (1st); prime</t>
   </si>
   <si>
-    <t>sixth (6th)</t>
+    <t>nine (9)</t>
+  </si>
+  <si>
+    <t>seven (7)</t>
+  </si>
+  <si>
+    <t>five (5)</t>
+  </si>
+  <si>
+    <t>six (6)</t>
+  </si>
+  <si>
+    <t>eight (8)</t>
   </si>
   <si>
     <t>ten (10)</t>
   </si>
   <si>
-    <t>eight (8)</t>
-  </si>
-  <si>
-    <t>nine (9)</t>
-  </si>
-  <si>
-    <t>seven (7)</t>
-  </si>
-  <si>
-    <t>five (5)</t>
-  </si>
-  <si>
-    <t>six (6)</t>
-  </si>
-  <si>
     <t>one hundred (100)</t>
   </si>
   <si>
@@ -3397,6 +3397,9 @@
     <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
   </si>
   <si>
+    <t>is seen; is observed; is manifest</t>
+  </si>
+  <si>
     <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
   </si>
   <si>
@@ -3409,9 +3412,6 @@
     <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
   </si>
   <si>
-    <t>is seen; is observed; is manifest</t>
-  </si>
-  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
@@ -3454,96 +3454,96 @@
     <t>indeed; certainly; truly; definitely</t>
   </si>
   <si>
+    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
+  </si>
+  <si>
+    <t>away (from); far away (from); distant (from)</t>
+  </si>
+  <si>
+    <t>externally; outwardly</t>
+  </si>
+  <si>
+    <t>well; carefully; thoroughly; fully; completely</t>
+  </si>
+  <si>
+    <t>by day; during the day; for a day</t>
+  </si>
+  <si>
+    <t>again; once more</t>
+  </si>
+  <si>
     <t>if</t>
   </si>
   <si>
-    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
-  </si>
-  <si>
-    <t>away (from); far away (from); distant (from)</t>
-  </si>
-  <si>
-    <t>externally; outwardly</t>
-  </si>
-  <si>
-    <t>well; carefully; thoroughly; fully; completely</t>
-  </si>
-  <si>
-    <t>by day; during the day; for a day</t>
-  </si>
-  <si>
-    <t>again; once more</t>
+    <t>thus; like this; this is; and so</t>
+  </si>
+  <si>
+    <t>there; in such-and-such a place</t>
+  </si>
+  <si>
+    <t>(of place) from here; away from; lit. from this</t>
+  </si>
+  <si>
+    <t>behind; backwards; lit. from behind</t>
+  </si>
+  <si>
+    <t>across</t>
+  </si>
+  <si>
+    <t>below; under</t>
+  </si>
+  <si>
+    <t>above; up; on top</t>
+  </si>
+  <si>
+    <t>even so much as; even with; even down to; with as little as</t>
+  </si>
+  <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
+    <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
+  </si>
+  <si>
+    <t>internally; inwardly; personally</t>
+  </si>
+  <si>
+    <t>near (to); not far (from)</t>
+  </si>
+  <si>
+    <t>really; truly; definitely</t>
+  </si>
+  <si>
+    <t>on the spot; right there; immediately; lit. from the place</t>
+  </si>
+  <si>
+    <t>certainly; surely; indeed</t>
+  </si>
+  <si>
+    <t>completely; thoroughly; fully; totally</t>
+  </si>
+  <si>
+    <t>but; rather; even</t>
+  </si>
+  <si>
+    <t>only; just; merely; exclusively</t>
+  </si>
+  <si>
+    <t>in detail; in full; thoroughly</t>
+  </si>
+  <si>
+    <t>it is good (for); it would be good (if)</t>
+  </si>
+  <si>
+    <t>from far away; from afar</t>
   </si>
   <si>
     <t>then; also; and so; after that</t>
   </si>
   <si>
-    <t>thus; like this; this is; and so</t>
-  </si>
-  <si>
-    <t>there; in such-and-such a place</t>
-  </si>
-  <si>
-    <t>(of place) from here; away from; lit. from this</t>
-  </si>
-  <si>
-    <t>behind; backwards; lit. from behind</t>
-  </si>
-  <si>
-    <t>across</t>
-  </si>
-  <si>
-    <t>below; under</t>
-  </si>
-  <si>
-    <t>above; up; on top</t>
-  </si>
-  <si>
-    <t>even so much as; even with; even down to; with as little as</t>
-  </si>
-  <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
-    <t>internally; inwardly; personally</t>
-  </si>
-  <si>
-    <t>near (to); not far (from)</t>
-  </si>
-  <si>
-    <t>really; truly; definitely</t>
-  </si>
-  <si>
-    <t>on the spot; right there; immediately; lit. from the place</t>
-  </si>
-  <si>
-    <t>certainly; surely; indeed</t>
-  </si>
-  <si>
-    <t>completely; thoroughly; fully; totally</t>
-  </si>
-  <si>
-    <t>but; rather; even</t>
-  </si>
-  <si>
-    <t>only; just; merely; exclusively</t>
-  </si>
-  <si>
-    <t>in detail; in full; thoroughly</t>
-  </si>
-  <si>
-    <t>it is good (for); it would be good (if)</t>
-  </si>
-  <si>
-    <t>from far away; from afar</t>
-  </si>
-  <si>
     <t>differently; otherwise</t>
   </si>
   <si>
-    <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
-  </si>
-  <si>
     <t>existing (in); being found (in)</t>
   </si>
   <si>
@@ -3577,15 +3577,15 @@
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
+    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
+  </si>
+  <si>
     <t>should be cultivated; should be developed; lit. to be caused to be</t>
   </si>
   <si>
     <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
   </si>
   <si>
-    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
-  </si>
-  <si>
     <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
   </si>
   <si>
@@ -3625,45 +3625,45 @@
     <t>deprives (of); removes (from); cuts off (from); takes down (from)</t>
   </si>
   <si>
+    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
+  </si>
+  <si>
+    <t>honour; reveres; hold in high esteem</t>
+  </si>
+  <si>
+    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
+  </si>
+  <si>
+    <t>is evident; lit. makes itself known</t>
+  </si>
+  <si>
+    <t>fills up; fills out; lit. causes to fill</t>
+  </si>
+  <si>
+    <t>soaks; drenches; lit. makes flow around</t>
+  </si>
+  <si>
+    <t>inclines (towards); bends (towards); directs (towards)</t>
+  </si>
+  <si>
+    <t>explains; illustrates; illuminates; reveals; teaches</t>
+  </si>
+  <si>
+    <t>cleans (from); purifies (of)</t>
+  </si>
+  <si>
+    <t>stretches out; straightens; extends; lit. causes to go forward</t>
+  </si>
+  <si>
+    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
+  </si>
+  <si>
+    <t>builds; has constructed; lit. causes to build</t>
+  </si>
+  <si>
     <t>preach (to); teaches (to); explains (to)</t>
   </si>
   <si>
-    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
-  </si>
-  <si>
-    <t>honour; reveres; hold in high esteem</t>
-  </si>
-  <si>
-    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
-  </si>
-  <si>
-    <t>is evident; lit. makes itself known</t>
-  </si>
-  <si>
-    <t>fills up; fills out; lit. causes to fill</t>
-  </si>
-  <si>
-    <t>soaks; drenches; lit. makes flow around</t>
-  </si>
-  <si>
-    <t>inclines (towards); bends (towards); directs (towards)</t>
-  </si>
-  <si>
-    <t>explains; illustrates; illuminates; reveals; teaches</t>
-  </si>
-  <si>
-    <t>cleans (from); purifies (of)</t>
-  </si>
-  <si>
-    <t>stretches out; straightens; extends; lit. causes to go forward</t>
-  </si>
-  <si>
-    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
-  </si>
-  <si>
-    <t>builds; has constructed; lit. causes to build</t>
-  </si>
-  <si>
     <t>prepares; arranges; forms; fashions; constructs</t>
   </si>
   <si>
@@ -3694,285 +3694,333 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>saying; mentioning</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>saying; mentioning</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
     <t>source; arising; origin; appearance</t>
   </si>
   <si>
@@ -3991,15 +4039,9 @@
     <t>death; Death; death personified</t>
   </si>
   <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
     <t>(of water) flood; deluge; torrent</t>
   </si>
   <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
     <t>method; system; means; way</t>
   </si>
   <si>
@@ -4012,24 +4054,15 @@
     <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
   </si>
   <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
     <t>aggregate; combination; conglomeration</t>
   </si>
   <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
     <t>stream; river; current</t>
   </si>
   <si>
     <t>peace (of); calming (of); subsiding (of); settling (of)</t>
   </si>
   <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
     <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
   </si>
   <si>
@@ -4072,24 +4105,15 @@
     <t>prince</t>
   </si>
   <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
     <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
   </si>
   <si>
     <t>tree</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
     <t>room; inside room; inner chamber; lit. womb</t>
   </si>
   <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
     <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
   </si>
   <si>
@@ -4099,9 +4123,6 @@
     <t>illusion; delusion; hallucination</t>
   </si>
   <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
     <t>man of the ruling class; young noble</t>
   </si>
   <si>
@@ -4111,27 +4132,12 @@
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
     <t>need (for); want (for); lit. want</t>
   </si>
   <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
     <t>non-attention; ignoring; lit. not making in mind</t>
   </si>
   <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
     <t>well; (comm) pond; pool; lit. water drinking</t>
   </si>
   <si>
@@ -4159,9 +4165,6 @@
     <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -4171,9 +4174,6 @@
     <t>urine</t>
   </si>
   <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
     <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
@@ -4228,6 +4228,9 @@
     <t>produces; generates; makes; gives birth to; lit. flows forth</t>
   </si>
   <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
     <t>increases more and more; surpasses; outgrows</t>
   </si>
   <si>
@@ -4243,99 +4246,96 @@
     <t>goes (from); goes away (from); leaves (from)</t>
   </si>
   <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
     <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
   </si>
   <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
   </si>
   <si>
     <t>speaks (about); talks (about)</t>
   </si>
   <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
     <t>proceeds; continues; goes forward; practices</t>
   </si>
   <si>
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
     <t>sits (on); sits down (in)</t>
   </si>
   <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
     <t>chews; devours; eats</t>
   </si>
   <si>
@@ -4414,12 +4414,12 @@
     <t>sleeps</t>
   </si>
   <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
-  </si>
-  <si>
     <t>comes (to)</t>
   </si>
   <si>
@@ -4486,42 +4486,48 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method</t>
-  </si>
-  <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
     <t>there are; they are</t>
   </si>
   <si>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>we are</t>
   </si>
   <si>
@@ -4531,15 +4537,9 @@
     <t>you (all) must be; may you (all) be</t>
   </si>
   <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
-    <t>there is; there exists</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
@@ -4636,15 +4636,15 @@
     <t>addressed; spoke (to)</t>
   </si>
   <si>
+    <t>stood; stayed; remained</t>
+  </si>
+  <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>spoke; said</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
-    <t>stood; stayed; remained</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -4654,18 +4654,18 @@
     <t>excess; pleasure; indulgence</t>
   </si>
   <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; something opposed to the teaching</t>
+  </si>
+  <si>
     <t>livelihood; mode of living; way of life; way of earning a living</t>
   </si>
   <si>
     <t>alertness; care; carefulness; caution; vigilance; diligence; conscientiousness; heedfulness; lit. not heedless</t>
   </si>
   <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; something opposed to the teaching</t>
-  </si>
-  <si>
     <t>skin</t>
   </si>
   <si>
@@ -4873,12 +4873,12 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>venerable; reverend; lit. having age quality</t>
+  </si>
+  <si>
     <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
   </si>
   <si>
-    <t>venerable; reverend; lit. having age quality</t>
-  </si>
-  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
@@ -4909,6 +4909,9 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
+    <t>now; immediately</t>
+  </si>
+  <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
@@ -4927,18 +4930,15 @@
     <t>always; ever; all the time</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
     <t>and; both</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>now; immediately</t>
-  </si>
-  <si>
     <t>today; now</t>
   </si>
   <si>
@@ -5116,12 +5116,12 @@
     <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
   </si>
   <si>
+    <t>advice; instruction encouragement; exhortation</t>
+  </si>
+  <si>
     <t>not forgetting; non-confusion</t>
   </si>
   <si>
-    <t>advice; instruction encouragement; exhortation</t>
-  </si>
-  <si>
     <t>having arrested; having taken prisoner</t>
   </si>
   <si>
@@ -5305,6 +5305,9 @@
     <t>fulfilment; completion; perfecting; maturity</t>
   </si>
   <si>
+    <t>nun; fully ordained nun</t>
+  </si>
+  <si>
     <t>advice; instruction; teaching</t>
   </si>
   <si>
@@ -5314,9 +5317,6 @@
     <t>name of a city; modern Varanasi</t>
   </si>
   <si>
-    <t>nun; fully ordained nun</t>
-  </si>
-  <si>
     <t>name of a city; capital of Kosala</t>
   </si>
   <si>
@@ -5338,234 +5338,237 @@
     <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
   </si>
   <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>homelessness; homeless state</t>
+  </si>
+  <si>
+    <t>household life; domestic living</t>
+  </si>
+  <si>
+    <t>ease; comfort; happiness; pleasure; contentment</t>
+  </si>
+  <si>
+    <t>welfare (of); good (of); benefit (of); blessing</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>spiritual path; spiritual practice; holy life; celibacy</t>
+  </si>
+  <si>
+    <t>effort; energy; might; power; lit. virility</t>
+  </si>
+  <si>
+    <t>expansion; full development; maturity</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>supporter; supporting family; lit. family</t>
+  </si>
+  <si>
+    <t>jewel; gem; gemstone</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause; lit. standing</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>(Dhamma) power; strength</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
     <t>being; living being; entity; lit. become</t>
   </si>
   <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>homelessness; homeless state</t>
-  </si>
-  <si>
-    <t>household life; domestic living</t>
-  </si>
-  <si>
-    <t>ease; comfort; happiness; pleasure; contentment</t>
-  </si>
-  <si>
-    <t>welfare (of); good (of); benefit (of); blessing</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>effort; energy; might; power; lit. virility</t>
-  </si>
-  <si>
-    <t>expansion; full development; maturity</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>supporter; supporting family; lit. family</t>
-  </si>
-  <si>
-    <t>jewel; gem; gemstone</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause; lit. standing</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
+    <t>body</t>
+  </si>
+  <si>
+    <t>(of the body) side; rib</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>merit; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>spread; bedspread; coverlet; counterpane</t>
+  </si>
+  <si>
+    <t>knowing (of); understanding (of); insight (into)</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
   </si>
   <si>
     <t>forest; wood; wilds; wilderness; lit. remoteness</t>
   </si>
   <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>(of the body) side; rib</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>spread; bedspread; coverlet; counterpane</t>
-  </si>
-  <si>
-    <t>knowing (of); understanding (of); insight (into)</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
+    <t>mind; heart</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
+  </si>
+  <si>
+    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
+  </si>
+  <si>
+    <t>time; period; extent</t>
+  </si>
+  <si>
+    <t>alms; gift</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>meat; flesh</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>(mental) pleasure; happiness; joy</t>
+  </si>
+  <si>
+    <t>message; letter; lit. teaching</t>
+  </si>
+  <si>
+    <t>food; boiled rice; lit. shared</t>
+  </si>
+  <si>
+    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>effort; exertion; lit. to be burned</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>strength; power; might</t>
+  </si>
+  <si>
+    <t>mark; sign; symbol; indication</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>life; existence</t>
+  </si>
+  <si>
+    <t>nose; lit. smelling</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>few things; few people; small amount</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>meditation; stage of meditation; lit. meditating</t>
   </si>
   <si>
     <t>in order to visit; for the purpose of seeing</t>
   </si>
   <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
-  </si>
-  <si>
-    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
-  </si>
-  <si>
-    <t>time; period; extent</t>
-  </si>
-  <si>
-    <t>alms; gift</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>meat; flesh</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>(mental) pleasure; happiness; joy</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>message; letter; lit. teaching</t>
-  </si>
-  <si>
-    <t>food; boiled rice; lit. shared</t>
-  </si>
-  <si>
-    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>effort; exertion; lit. to be burned</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>strength; power; might</t>
-  </si>
-  <si>
-    <t>mark; sign; symbol; indication</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>life; existence</t>
-  </si>
-  <si>
-    <t>nose; lit. smelling</t>
-  </si>
-  <si>
-    <t>few things; few people; small amount</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>mind; heart</t>
-  </si>
-  <si>
-    <t>meditation; stage of meditation; lit. meditating</t>
-  </si>
-  <si>
     <t>class of vinaya offence; wrong-doing; lit. badly done</t>
   </si>
   <si>
@@ -5578,9 +5581,6 @@
     <t>(vinaya) offence involving defeat; transgression requiring expulsion</t>
   </si>
   <si>
-    <t>spiritual path; spiritual practice; holy life; celibacy</t>
-  </si>
-  <si>
     <t>fetter; chain; bond; thing which binds; lit. yoking together</t>
   </si>
   <si>
@@ -5608,30 +5608,30 @@
     <t>just; only</t>
   </si>
   <si>
+    <t>how?</t>
+  </si>
+  <si>
+    <t>enough; it is enough (for)</t>
+  </si>
+  <si>
+    <t>as long as; as far as; so much so; up to; until; from … to</t>
+  </si>
+  <si>
+    <t>it is possible (to); one is able (to)</t>
+  </si>
+  <si>
+    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
+  </si>
+  <si>
+    <t>that’s enough (of)!; stop (with)!</t>
+  </si>
+  <si>
+    <t>even; even then</t>
+  </si>
+  <si>
     <t>is able (to); is possible (to); is capable (of); lit. enough</t>
   </si>
   <si>
-    <t>how?</t>
-  </si>
-  <si>
-    <t>enough; it is enough (for)</t>
-  </si>
-  <si>
-    <t>as long as; as far as; so much so; up to; until; from … to</t>
-  </si>
-  <si>
-    <t>it is possible (to); one is able (to)</t>
-  </si>
-  <si>
-    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
-  </si>
-  <si>
-    <t>that’s enough (of)!; stop (with)!</t>
-  </si>
-  <si>
-    <t>even; even then</t>
-  </si>
-  <si>
     <t>to see (as); to regard (as); to consider (as)</t>
   </si>
   <si>
@@ -5650,10 +5650,10 @@
     <t>life force; life energy</t>
   </si>
   <si>
+    <t>site; location; base; grounds; lit. ground</t>
+  </si>
+  <si>
     <t>eye</t>
-  </si>
-  <si>
-    <t>site; location; base; grounds; lit. ground</t>
   </si>
   <si>
     <t>a-pron</t>
@@ -9636,7 +9636,7 @@
         <v>941</v>
       </c>
       <c r="C200" t="s">
-        <v>1146</v>
+        <v>1153</v>
       </c>
       <c r="D200" t="s">
         <v>941</v>
@@ -9653,7 +9653,7 @@
         <v>941</v>
       </c>
       <c r="C201" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D201" t="s">
         <v>941</v>
@@ -9670,7 +9670,7 @@
         <v>941</v>
       </c>
       <c r="C202" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D202" t="s">
         <v>941</v>
@@ -9687,7 +9687,7 @@
         <v>941</v>
       </c>
       <c r="C203" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D203" t="s">
         <v>941</v>
@@ -9704,7 +9704,7 @@
         <v>941</v>
       </c>
       <c r="C204" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D204" t="s">
         <v>941</v>
@@ -9721,7 +9721,7 @@
         <v>941</v>
       </c>
       <c r="C205" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D205" t="s">
         <v>941</v>
@@ -9738,7 +9738,7 @@
         <v>941</v>
       </c>
       <c r="C206" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D206" t="s">
         <v>941</v>
@@ -9755,7 +9755,7 @@
         <v>941</v>
       </c>
       <c r="C207" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D207" t="s">
         <v>941</v>
@@ -9772,7 +9772,7 @@
         <v>941</v>
       </c>
       <c r="C208" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="D208" t="s">
         <v>941</v>
@@ -13563,7 +13563,7 @@
         <v>939</v>
       </c>
       <c r="C431" t="s">
-        <v>1252</v>
+        <v>1383</v>
       </c>
       <c r="D431" t="s">
         <v>1887</v>
@@ -13580,7 +13580,7 @@
         <v>939</v>
       </c>
       <c r="C432" t="s">
-        <v>1383</v>
+        <v>1253</v>
       </c>
       <c r="D432" t="s">
         <v>1887</v>
@@ -15651,7 +15651,7 @@
         <v>557</v>
       </c>
       <c r="B554" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="C554" t="s">
         <v>1504</v>
@@ -15685,7 +15685,7 @@
         <v>559</v>
       </c>
       <c r="B556" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="C556" t="s">
         <v>1506</v>
@@ -18595,7 +18595,7 @@
         <v>949</v>
       </c>
       <c r="C727" t="s">
-        <v>1677</v>
+        <v>1319</v>
       </c>
       <c r="D727" t="s">
         <v>1908</v>
@@ -18612,7 +18612,7 @@
         <v>949</v>
       </c>
       <c r="C728" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D728" t="s">
         <v>1908</v>
@@ -18629,7 +18629,7 @@
         <v>949</v>
       </c>
       <c r="C729" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D729" t="s">
         <v>1908</v>
@@ -18646,7 +18646,7 @@
         <v>949</v>
       </c>
       <c r="C730" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D730" t="s">
         <v>1908</v>
@@ -18663,7 +18663,7 @@
         <v>949</v>
       </c>
       <c r="C731" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D731" t="s">
         <v>1908</v>
@@ -18680,7 +18680,7 @@
         <v>949</v>
       </c>
       <c r="C732" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D732" t="s">
         <v>1908</v>
@@ -18697,7 +18697,7 @@
         <v>949</v>
       </c>
       <c r="C733" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D733" t="s">
         <v>1908</v>
@@ -18714,7 +18714,7 @@
         <v>949</v>
       </c>
       <c r="C734" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D734" t="s">
         <v>1908</v>
@@ -18731,7 +18731,7 @@
         <v>949</v>
       </c>
       <c r="C735" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D735" t="s">
         <v>1908</v>
@@ -18748,7 +18748,7 @@
         <v>949</v>
       </c>
       <c r="C736" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D736" t="s">
         <v>1908</v>
@@ -18765,7 +18765,7 @@
         <v>949</v>
       </c>
       <c r="C737" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D737" t="s">
         <v>1908</v>
@@ -18782,7 +18782,7 @@
         <v>949</v>
       </c>
       <c r="C738" t="s">
-        <v>1229</v>
+        <v>1687</v>
       </c>
       <c r="D738" t="s">
         <v>1908</v>

--- a/pali-class/vocab/vocab-class14.xlsx
+++ b/pali-class/vocab/vocab-class14.xlsx
@@ -205,6 +205,9 @@
     <t>sukka 1</t>
   </si>
   <si>
+    <t>sāraṇīya 1.1</t>
+  </si>
+  <si>
     <t>sampajāna 1</t>
   </si>
   <si>
@@ -217,9 +220,6 @@
     <t>akusala 1</t>
   </si>
   <si>
-    <t>sāraṇīya 1.1</t>
-  </si>
-  <si>
     <t>iṭṭha 1</t>
   </si>
   <si>
@@ -319,36 +319,36 @@
     <t>kupita</t>
   </si>
   <si>
+    <t>patta 3.1</t>
+  </si>
+  <si>
+    <t>samāhita 1</t>
+  </si>
+  <si>
+    <t>pabbajita 2</t>
+  </si>
+  <si>
+    <t>laddha 1</t>
+  </si>
+  <si>
+    <t>adhigata 1</t>
+  </si>
+  <si>
+    <t>santuṭṭha 1</t>
+  </si>
+  <si>
+    <t>kata 1</t>
+  </si>
+  <si>
+    <t>vimutta</t>
+  </si>
+  <si>
+    <t>visuddha 1</t>
+  </si>
+  <si>
     <t>cuta 1.1</t>
   </si>
   <si>
-    <t>patta 3.1</t>
-  </si>
-  <si>
-    <t>samāhita 1</t>
-  </si>
-  <si>
-    <t>pabbajita 2</t>
-  </si>
-  <si>
-    <t>laddha 1</t>
-  </si>
-  <si>
-    <t>adhigata 1</t>
-  </si>
-  <si>
-    <t>santuṭṭha 1</t>
-  </si>
-  <si>
-    <t>kata 1</t>
-  </si>
-  <si>
-    <t>vimutta</t>
-  </si>
-  <si>
-    <t>visuddha 1</t>
-  </si>
-  <si>
     <t>vutta 2.1</t>
   </si>
   <si>
@@ -556,12 +556,12 @@
     <t>dissati 2</t>
   </si>
   <si>
+    <t>parimuccati</t>
+  </si>
+  <si>
     <t>khajjati 1</t>
   </si>
   <si>
-    <t>parimuccati</t>
-  </si>
-  <si>
     <t>chijjati 1</t>
   </si>
   <si>
@@ -1435,111 +1435,111 @@
     <t>gaṇhati 1</t>
   </si>
   <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>vasati</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>pakkhandati 1</t>
   </si>
   <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>vasati</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
     <t>paṭisevati 2</t>
   </si>
   <si>
@@ -3055,6 +3055,9 @@
     <t>pure; bright</t>
   </si>
   <si>
+    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
+  </si>
+  <si>
     <t>clearly aware; fully knowing; completely comprehending</t>
   </si>
   <si>
@@ -3067,9 +3070,6 @@
     <t>unskilful; incompetent; inexperienced</t>
   </si>
   <si>
-    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
-  </si>
-  <si>
     <t>pleasing; likeable; cherished; wished for; lit. wished</t>
   </si>
   <si>
@@ -3169,36 +3169,36 @@
     <t>indignant; angry; annoyed; outraged; offended</t>
   </si>
   <si>
+    <t>reached; attained; gained; accomplished; found</t>
+  </si>
+  <si>
+    <t>composed; centred; settled; collected; concentrated</t>
+  </si>
+  <si>
+    <t>ordained (from); renounced (from); lit. exiled</t>
+  </si>
+  <si>
+    <t>obtained; gained; won; received</t>
+  </si>
+  <si>
+    <t>got; acquired; attained; achieved; lit. arrived at</t>
+  </si>
+  <si>
+    <t>satisfied; pleased; content; happy with</t>
+  </si>
+  <si>
+    <t>done; did; completed</t>
+  </si>
+  <si>
+    <t>freed (from); liberated (from); emancipated (from)</t>
+  </si>
+  <si>
+    <t>cleansed; purified; refined</t>
+  </si>
+  <si>
     <t>passed away; died</t>
   </si>
   <si>
-    <t>reached; attained; gained; accomplished; found</t>
-  </si>
-  <si>
-    <t>composed; centred; settled; collected; concentrated</t>
-  </si>
-  <si>
-    <t>ordained (from); renounced (from); lit. exiled</t>
-  </si>
-  <si>
-    <t>obtained; gained; won; received</t>
-  </si>
-  <si>
-    <t>got; acquired; attained; achieved; lit. arrived at</t>
-  </si>
-  <si>
-    <t>satisfied; pleased; content; happy with</t>
-  </si>
-  <si>
-    <t>done; did; completed</t>
-  </si>
-  <si>
-    <t>freed (from); liberated (from); emancipated (from)</t>
-  </si>
-  <si>
-    <t>cleansed; purified; refined</t>
-  </si>
-  <si>
     <t>said; told; spoken; mentioned</t>
   </si>
   <si>
@@ -3406,12 +3406,12 @@
     <t>seems; lit. is seen</t>
   </si>
   <si>
+    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
+  </si>
+  <si>
     <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
   </si>
   <si>
-    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
-  </si>
-  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
@@ -4279,111 +4279,111 @@
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>lives; stays; resides (in)</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
   </si>
   <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>lives; stays; resides (in)</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
@@ -4546,7 +4546,7 @@
     <t>appeared; manifested; lit. was visible</t>
   </si>
   <si>
-    <t>is</t>
+    <t>is; becomes</t>
   </si>
   <si>
     <t>may it be (for)!</t>

--- a/pali-class/vocab/vocab-class14.xlsx
+++ b/pali-class/vocab/vocab-class14.xlsx
@@ -235,12 +235,12 @@
     <t>methuna 1</t>
   </si>
   <si>
+    <t>paripūra 1</t>
+  </si>
+  <si>
     <t>sassata</t>
   </si>
   <si>
-    <t>paripūra 1</t>
-  </si>
-  <si>
     <t>dhuva 1</t>
   </si>
   <si>
@@ -1717,30 +1717,30 @@
     <t>hotha</t>
   </si>
   <si>
+    <t>ajjhabhāsi</t>
+  </si>
+  <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
+  </si>
+  <si>
+    <t>paccassosi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>ajjhabhāsi</t>
-  </si>
-  <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
-    <t>paccassosi</t>
-  </si>
-  <si>
     <t>apucchi</t>
   </si>
   <si>
@@ -2005,12 +2005,12 @@
     <t>vipassī 1</t>
   </si>
   <si>
+    <t>brahmacārī 2</t>
+  </si>
+  <si>
     <t>pakkhī</t>
   </si>
   <si>
-    <t>brahmacārī 2</t>
-  </si>
-  <si>
     <t>saṅgaha 1</t>
   </si>
   <si>
@@ -2569,12 +2569,12 @@
     <t>nidāna 1</t>
   </si>
   <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
     <t>rūpa 1</t>
   </si>
   <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
     <t>pamāṇa 3</t>
   </si>
   <si>
@@ -3085,12 +3085,12 @@
     <t>sexual</t>
   </si>
   <si>
+    <t>full; filled up; complete</t>
+  </si>
+  <si>
     <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
   </si>
   <si>
-    <t>full; filled up; complete</t>
-  </si>
-  <si>
     <t>stable; enduring; eternal; everlasting</t>
   </si>
   <si>
@@ -3946,7 +3946,7 @@
     <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
   </si>
   <si>
-    <t>trainee; apprentice; learner; initiate</t>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
   </si>
   <si>
     <t>quality; characteristic; trait; inherent quality</t>
@@ -4246,7 +4246,7 @@
     <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
   </si>
   <si>
-    <t>wards off; prevents; guards against</t>
+    <t>protects; guards; watches over</t>
   </si>
   <si>
     <t>go!; begone!</t>
@@ -4558,30 +4558,30 @@
     <t>may you all be!; I pray you all may be!</t>
   </si>
   <si>
+    <t>addressed; spoke (to)</t>
+  </si>
+  <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>replied (to); agreed (with)</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>addressed; spoke (to)</t>
-  </si>
-  <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>replied (to); agreed (with)</t>
-  </si>
-  <si>
     <t>asked; enquired</t>
   </si>
   <si>
@@ -4846,12 +4846,12 @@
     <t>name of the 7th previous Buddha; lit. insightful; who sees distinctly</t>
   </si>
   <si>
+    <t>celibate man; who abstains from sexual intercourse</t>
+  </si>
+  <si>
     <t>bird; lit. with wings</t>
   </si>
   <si>
-    <t>celibate man; who abstains from sexual intercourse</t>
-  </si>
-  <si>
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
@@ -5401,10 +5401,10 @@
     <t>source; origin; foundation; cause; reason; lit. tying down</t>
   </si>
   <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
     <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
   </si>
   <si>
     <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>

--- a/pali-class/vocab/vocab-class14.xlsx
+++ b/pali-class/vocab/vocab-class14.xlsx
@@ -2545,117 +2545,117 @@
     <t>vepulla 1</t>
   </si>
   <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>pāpa 3</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
     <t>nibbāna 2</t>
   </si>
   <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>pāpa 3</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
     <t>bhaya 3</t>
   </si>
   <si>
@@ -5377,115 +5377,115 @@
     <t>expansion; full development; maturity</t>
   </si>
   <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause; lit. standing</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>spread; bedspread; coverlet; counterpane</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
     <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause; lit. standing</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>spread; bedspread; coverlet; counterpane</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
   </si>
   <si>
     <t>danger (of; from); peril (of; from)</t>

--- a/pali-class/vocab/vocab-class14.xlsx
+++ b/pali-class/vocab/vocab-class14.xlsx
@@ -709,33 +709,33 @@
     <t>bhāvita 1</t>
   </si>
   <si>
+    <t>vacanīya 2</t>
+  </si>
+  <si>
+    <t>pahātabba</t>
+  </si>
+  <si>
+    <t>veditabba 1</t>
+  </si>
+  <si>
+    <t>daṭṭhabba 1</t>
+  </si>
+  <si>
+    <t>sikkhitabba</t>
+  </si>
+  <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
+    <t>karaṇīya 2</t>
+  </si>
+  <si>
     <t>kātabba 2</t>
   </si>
   <si>
-    <t>vacanīya 2</t>
-  </si>
-  <si>
-    <t>pahātabba</t>
-  </si>
-  <si>
-    <t>veditabba 1</t>
-  </si>
-  <si>
-    <t>daṭṭhabba 1</t>
-  </si>
-  <si>
-    <t>sikkhitabba</t>
-  </si>
-  <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
-    <t>karaṇīya 2</t>
-  </si>
-  <si>
     <t>kāretabba 1</t>
   </si>
   <si>
@@ -1762,30 +1762,30 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>kucchi 1</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
+    <t>ñāti</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>kucchi 1</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
-    <t>ñāti</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -3127,7 +3127,7 @@
     <t>dark; black</t>
   </si>
   <si>
-    <t>brownish; colour of Buddhist monks’ robes</t>
+    <t>brownish; colour of Buddhist monks' robes</t>
   </si>
   <si>
     <t>right (hand side)</t>
@@ -3556,33 +3556,33 @@
     <t>cultivated; developed; lit. caused to be</t>
   </si>
   <si>
+    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
+  </si>
+  <si>
+    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
+  </si>
+  <si>
+    <t>can be known (by); should be understood (by); lit. to be known</t>
+  </si>
+  <si>
+    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
+  </si>
+  <si>
+    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
+  </si>
+  <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
+    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
+  </si>
+  <si>
     <t>should be made; lit. to be done</t>
   </si>
   <si>
-    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
-  </si>
-  <si>
-    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
-  </si>
-  <si>
-    <t>can be known (by); should be understood (by); lit. to be known</t>
-  </si>
-  <si>
-    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
-  </si>
-  <si>
-    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
-  </si>
-  <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
-    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
-  </si>
-  <si>
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
@@ -4603,30 +4603,30 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>stomach; belly</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
   </si>
   <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>stomach; belly</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -4729,7 +4729,7 @@
     <t>with; together (with); accompanied (by)</t>
   </si>
   <si>
-    <t>do not; may one not; don’t let</t>
+    <t>do not; may one not; don't let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -5206,7 +5206,7 @@
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
-    <t>hut; monk’s dwelling</t>
+    <t>hut; monk's dwelling</t>
   </si>
   <si>
     <t>outer robe; double robe; patchwork robe; lit. joined together</t>
@@ -5596,7 +5596,7 @@
     <t>too; also; as well</t>
   </si>
   <si>
-    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+    <t>(adds a question mark) surely?; didn't?; wouldn't?; which?</t>
   </si>
   <si>
     <t>just; only</t>
@@ -5620,7 +5620,7 @@
     <t>how?</t>
   </si>
   <si>
-    <t>that’s enough (of)!; stop (with)!</t>
+    <t>that's enough (of)!; stop (with)!</t>
   </si>
   <si>
     <t>enough; it is enough (for)</t>

--- a/pali-class/vocab/vocab-class14.xlsx
+++ b/pali-class/vocab/vocab-class14.xlsx
@@ -334,6 +334,9 @@
     <t>adhigata 1</t>
   </si>
   <si>
+    <t>paricita</t>
+  </si>
+  <si>
     <t>santuṭṭha 1</t>
   </si>
   <si>
@@ -370,9 +373,6 @@
     <t>pahīna</t>
   </si>
   <si>
-    <t>paricita</t>
-  </si>
-  <si>
     <t>puṭṭha 1.1</t>
   </si>
   <si>
@@ -406,12 +406,12 @@
     <t>vusita 1</t>
   </si>
   <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
     <t>pāpaka 1.1</t>
   </si>
   <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
     <t>mahanta 1</t>
   </si>
   <si>
@@ -688,15 +688,15 @@
     <t>atha 1</t>
   </si>
   <si>
+    <t>atha 2</t>
+  </si>
+  <si>
     <t>aññathā 1</t>
   </si>
   <si>
     <t>accayena 2</t>
   </si>
   <si>
-    <t>atha 2</t>
-  </si>
-  <si>
     <t>khajjamāna</t>
   </si>
   <si>
@@ -928,375 +928,375 @@
     <t>saṃvara 2</t>
   </si>
   <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>pāsāda</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>pāsāda</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -1432,6 +1432,9 @@
     <t>ākaṅkhati</t>
   </si>
   <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>gaṇhati 1</t>
   </si>
   <si>
@@ -1468,90 +1471,87 @@
     <t>saṃvattati</t>
   </si>
   <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>passa 2.1</t>
+  </si>
+  <si>
     <t>vasati</t>
   </si>
   <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>passa 2.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1663,6 +1663,9 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -1675,9 +1678,6 @@
     <t>āpajjati 5</t>
   </si>
   <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
     <t>atthi 1</t>
   </si>
   <si>
@@ -1849,24 +1849,24 @@
     <t>me 3</t>
   </si>
   <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
+    <t>me 2</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
-    <t>me 2</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -2032,15 +2032,15 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>cakkhumant 2</t>
+  </si>
+  <si>
     <t>āyasmant 1</t>
   </si>
   <si>
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>cakkhumant 2</t>
-  </si>
-  <si>
     <t>akkhātar</t>
   </si>
   <si>
@@ -2341,6 +2341,12 @@
     <t>samādāya 2</t>
   </si>
   <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>paṇidhāya 1</t>
+  </si>
+  <si>
     <t>āgamma 1</t>
   </si>
   <si>
@@ -2359,15 +2365,9 @@
     <t>uṭṭhāya</t>
   </si>
   <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
     <t>nisajja</t>
   </si>
   <si>
-    <t>paṇidhāya 1</t>
-  </si>
-  <si>
     <t>vivicca</t>
   </si>
   <si>
@@ -2431,18 +2431,18 @@
     <t>tattha 1</t>
   </si>
   <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>ettha 1</t>
+  </si>
+  <si>
     <t>yato 2</t>
   </si>
   <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>ettha 1</t>
-  </si>
-  <si>
     <t>upari 1</t>
   </si>
   <si>
@@ -2593,6 +2593,9 @@
     <t>vera</t>
   </si>
   <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
     <t>adinna 1</t>
   </si>
   <si>
@@ -2749,9 +2752,6 @@
     <t>bala 2</t>
   </si>
   <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
     <t>dukkha 3</t>
   </si>
   <si>
@@ -3184,6 +3184,9 @@
     <t>got; acquired; attained; achieved; lit. arrived at</t>
   </si>
   <si>
+    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
+  </si>
+  <si>
     <t>satisfied; pleased; content; happy with</t>
   </si>
   <si>
@@ -3220,9 +3223,6 @@
     <t>abandoned; dispelled; eliminated; removed; given up</t>
   </si>
   <si>
-    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
-  </si>
-  <si>
     <t>asked; questioned</t>
   </si>
   <si>
@@ -3256,12 +3256,12 @@
     <t>fulfilled; completed; finished; lit. lived</t>
   </si>
   <si>
+    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
+  </si>
+  <si>
     <t>bad; wicked; evil; wrong; worthless; harmful</t>
   </si>
   <si>
-    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
-  </si>
-  <si>
     <t>big; great; large; grand; vast; extensive</t>
   </si>
   <si>
@@ -3535,15 +3535,15 @@
     <t>then; also; and so; after that</t>
   </si>
   <si>
+    <t>but; rather; even</t>
+  </si>
+  <si>
     <t>differently; otherwise</t>
   </si>
   <si>
     <t>after the death (of); after the passing (of); lit. with the passing</t>
   </si>
   <si>
-    <t>but; rather; even</t>
-  </si>
-  <si>
     <t>being eaten (by); being devoured (by); lit. being chewed</t>
   </si>
   <si>
@@ -3775,372 +3775,372 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>mansion; stately home; palace; building with pillars</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
   </si>
   <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>mansion; stately home; palace; building with pillars</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
   </si>
   <si>
@@ -4276,6 +4276,9 @@
     <t>wishes (for); wants; desires; aspires (for)</t>
   </si>
   <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
@@ -4312,90 +4315,87 @@
     <t>leads (to); results (in); causes</t>
   </si>
   <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>see!; look (at)!</t>
+  </si>
+  <si>
     <t>lives; stays; resides (in)</t>
   </si>
   <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>see!; look (at)!</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -4504,6 +4504,9 @@
     <t>is reborn (in); re-arises (in); lit. goes towards</t>
   </si>
   <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -4516,9 +4519,6 @@
     <t>causes; effects</t>
   </si>
   <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
     <t>there is; there exists</t>
   </si>
   <si>
@@ -4690,24 +4690,24 @@
     <t>to me; for me</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>our; of us; my (royal plural)</t>
+  </si>
+  <si>
+    <t>by me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>me (object)</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>our; of us; my (royal plural)</t>
-  </si>
-  <si>
-    <t>by me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -4873,15 +4873,15 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>person with sight; who can see; lit. having eyes quality</t>
+  </si>
+  <si>
     <t>venerable; reverend; lit. having age quality</t>
   </si>
   <si>
     <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
   </si>
   <si>
-    <t>person with sight; who can see; lit. having eyes quality</t>
-  </si>
-  <si>
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
@@ -5176,6 +5176,12 @@
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>guiding; directing; determining; setting; lit. placing forward</t>
+  </si>
+  <si>
     <t>coming (to); arriving (at); meeting (with)</t>
   </si>
   <si>
@@ -5194,15 +5200,9 @@
     <t>rising (from); emerging (from); getting up (from)</t>
   </si>
   <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
     <t>sitting down</t>
   </si>
   <si>
-    <t>guiding; directing; determining; setting; lit. placing forward</t>
-  </si>
-  <si>
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
@@ -5266,15 +5266,15 @@
     <t>there; in that place</t>
   </si>
   <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>here; in this place; in this case; in this regard</t>
+  </si>
+  <si>
     <t>since; because; due to the fact that; lit. from which</t>
   </si>
   <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
-    <t>here; in this place; in this case; in this regard</t>
-  </si>
-  <si>
     <t>above; overhead</t>
   </si>
   <si>
@@ -5425,6 +5425,9 @@
     <t>hatred; ill-will; animosity; hostility</t>
   </si>
   <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
     <t>which is not given; something not offered</t>
   </si>
   <si>
@@ -5579,9 +5582,6 @@
   </si>
   <si>
     <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
     <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
@@ -12252,7 +12252,7 @@
         <v>939</v>
       </c>
       <c r="C353" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="D353" t="s">
         <v>1887</v>
@@ -12269,7 +12269,7 @@
         <v>939</v>
       </c>
       <c r="C354" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D354" t="s">
         <v>1887</v>
@@ -12286,7 +12286,7 @@
         <v>939</v>
       </c>
       <c r="C355" t="s">
-        <v>1295</v>
+        <v>1306</v>
       </c>
       <c r="D355" t="s">
         <v>1887</v>
@@ -14867,7 +14867,7 @@
         <v>510</v>
       </c>
       <c r="B507" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="C507" t="s">
         <v>1458</v>
@@ -14884,7 +14884,7 @@
         <v>511</v>
       </c>
       <c r="B508" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="C508" t="s">
         <v>1459</v>
@@ -18848,7 +18848,7 @@
         <v>949</v>
       </c>
       <c r="C741" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D741" t="s">
         <v>1909</v>
@@ -19902,7 +19902,7 @@
         <v>941</v>
       </c>
       <c r="C803" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="D803" t="s">
         <v>941</v>
@@ -19919,7 +19919,7 @@
         <v>941</v>
       </c>
       <c r="C804" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="D804" t="s">
         <v>941</v>
